--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,15 @@
     <t>2023-06-03</t>
   </si>
   <si>
+    <t>2023-08-12</t>
+  </si>
+  <si>
+    <t>2023-08-13</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIGUE 1 </t>
   </si>
   <si>
@@ -244,6 +253,42 @@
     <t>Lorient</t>
   </si>
   <si>
+    <t>Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Atletico Mineiro</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
@@ -301,9 +346,6 @@
     <t>Clermont Foot</t>
   </si>
   <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
     <t>Mallorca</t>
   </si>
   <si>
@@ -314,6 +356,36 @@
   </si>
   <si>
     <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -680,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,13 +807,13 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F2">
         <v>1.72</v>
@@ -756,7 +828,7 @@
         <v>0.2</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K2">
         <v>0.8</v>
@@ -765,7 +837,7 @@
         <v>1.72</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -779,13 +851,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>2.7</v>
@@ -800,7 +872,7 @@
         <v>0.75</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>0.75</v>
@@ -809,7 +881,7 @@
         <v>2.55</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -823,13 +895,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <v>1.65</v>
@@ -844,7 +916,7 @@
         <v>0.14</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>0.86</v>
@@ -853,7 +925,7 @@
         <v>1.65</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -867,13 +939,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F5">
         <v>1.68</v>
@@ -888,7 +960,7 @@
         <v>0.09</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>0.8100000000000001</v>
@@ -897,7 +969,7 @@
         <v>1.68</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -911,13 +983,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F6">
         <v>1.78</v>
@@ -932,7 +1004,7 @@
         <v>0.09</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>0.8100000000000001</v>
@@ -941,7 +1013,7 @@
         <v>1.78</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -955,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F7">
         <v>1.48</v>
@@ -976,7 +1048,7 @@
         <v>0.06</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>0.9399999999999999</v>
@@ -985,7 +1057,7 @@
         <v>1.48</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -999,13 +1071,13 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F8">
         <v>2.02</v>
@@ -1020,7 +1092,7 @@
         <v>0.25</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K8">
         <v>0.75</v>
@@ -1029,7 +1101,7 @@
         <v>2.02</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1043,13 +1115,13 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F9">
         <v>1.66</v>
@@ -1064,7 +1136,7 @@
         <v>0.23</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>0.77</v>
@@ -1073,7 +1145,7 @@
         <v>1.66</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1087,13 +1159,13 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F10">
         <v>1.63</v>
@@ -1108,7 +1180,7 @@
         <v>0.23</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>0.77</v>
@@ -1117,7 +1189,7 @@
         <v>1.63</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1131,13 +1203,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1152,7 +1224,7 @@
         <v>0.15</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>0.85</v>
@@ -1161,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1175,13 +1247,13 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F12">
         <v>1.52</v>
@@ -1196,7 +1268,7 @@
         <v>0.09</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K12">
         <v>0.91</v>
@@ -1205,7 +1277,7 @@
         <v>1.52</v>
       </c>
       <c r="M12" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1219,13 +1291,13 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F13">
         <v>3.95</v>
@@ -1240,7 +1312,7 @@
         <v>0.73</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K13">
         <v>0.73</v>
@@ -1249,7 +1321,7 @@
         <v>1.98</v>
       </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1263,13 +1335,13 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F14">
         <v>1.47</v>
@@ -1284,7 +1356,7 @@
         <v>0.14</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K14">
         <v>0.86</v>
@@ -1293,7 +1365,7 @@
         <v>1.47</v>
       </c>
       <c r="M14" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1307,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <v>1.55</v>
@@ -1328,7 +1400,7 @@
         <v>0.16</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K15">
         <v>0.84</v>
@@ -1337,7 +1409,7 @@
         <v>1.55</v>
       </c>
       <c r="M15" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -1351,13 +1423,13 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F16">
         <v>1.65</v>
@@ -1372,7 +1444,7 @@
         <v>0.23</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K16">
         <v>0.77</v>
@@ -1381,7 +1453,7 @@
         <v>1.65</v>
       </c>
       <c r="M16" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1395,13 +1467,13 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F17">
         <v>1.68</v>
@@ -1416,7 +1488,7 @@
         <v>0.17</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K17">
         <v>0.83</v>
@@ -1425,7 +1497,7 @@
         <v>1.68</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1439,13 +1511,13 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F18">
         <v>1.68</v>
@@ -1460,7 +1532,7 @@
         <v>0.16</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K18">
         <v>0.84</v>
@@ -1469,7 +1541,7 @@
         <v>1.68</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -1483,13 +1555,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>1.47</v>
@@ -1504,7 +1576,7 @@
         <v>0.05</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K19">
         <v>0.95</v>
@@ -1513,7 +1585,7 @@
         <v>1.47</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -1527,13 +1599,13 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>2.25</v>
@@ -1548,7 +1620,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K20">
         <v>0.8100000000000001</v>
@@ -1557,7 +1629,7 @@
         <v>3.2</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -1571,13 +1643,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F21">
         <v>1.44</v>
@@ -1592,7 +1664,7 @@
         <v>0.18</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K21">
         <v>0.82</v>
@@ -1601,7 +1673,7 @@
         <v>1.44</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -1615,13 +1687,13 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F22">
         <v>2.7</v>
@@ -1636,7 +1708,7 @@
         <v>0.78</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K22">
         <v>0.78</v>
@@ -1645,7 +1717,7 @@
         <v>2.55</v>
       </c>
       <c r="M22" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1659,13 +1731,13 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F23">
         <v>4.9</v>
@@ -1680,7 +1752,7 @@
         <v>0.75</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="K23">
         <v>0.75</v>
@@ -1689,7 +1761,7 @@
         <v>1.68</v>
       </c>
       <c r="M23" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1703,13 +1775,13 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F24">
         <v>1.88</v>
@@ -1724,7 +1796,7 @@
         <v>0.25</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K24">
         <v>0.75</v>
@@ -1733,7 +1805,7 @@
         <v>1.88</v>
       </c>
       <c r="M24" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1747,13 +1819,13 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F25">
         <v>1.82</v>
@@ -1768,7 +1840,7 @@
         <v>0.25</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K25">
         <v>0.75</v>
@@ -1777,7 +1849,7 @@
         <v>1.82</v>
       </c>
       <c r="M25" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1791,13 +1863,13 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F26">
         <v>3.95</v>
@@ -1812,7 +1884,7 @@
         <v>0.74</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K26">
         <v>0.74</v>
@@ -1821,7 +1893,7 @@
         <v>1.9</v>
       </c>
       <c r="M26" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1835,13 +1907,13 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F27">
         <v>2.72</v>
@@ -1856,7 +1928,7 @@
         <v>0.29</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K27">
         <v>0.71</v>
@@ -1865,7 +1937,7 @@
         <v>2.72</v>
       </c>
       <c r="M27" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1879,13 +1951,13 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F28">
         <v>2.38</v>
@@ -1900,7 +1972,7 @@
         <v>0.7</v>
       </c>
       <c r="J28" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K28">
         <v>0.7</v>
@@ -1909,7 +1981,7 @@
         <v>3.25</v>
       </c>
       <c r="M28" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1923,13 +1995,13 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F29">
         <v>1.5</v>
@@ -1944,7 +2016,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K29">
         <v>0.93</v>
@@ -1953,7 +2025,7 @@
         <v>1.5</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N29">
         <v>3</v>
@@ -1967,13 +2039,13 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F30">
         <v>1.85</v>
@@ -1988,7 +2060,7 @@
         <v>0.28</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K30">
         <v>0.72</v>
@@ -1997,7 +2069,7 @@
         <v>1.85</v>
       </c>
       <c r="M30" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2011,13 +2083,13 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F31">
         <v>2.68</v>
@@ -2032,7 +2104,7 @@
         <v>0.27</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K31">
         <v>0.73</v>
@@ -2041,7 +2113,7 @@
         <v>2.68</v>
       </c>
       <c r="M31" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2055,13 +2127,13 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F32">
         <v>2.35</v>
@@ -2076,7 +2148,7 @@
         <v>0.29</v>
       </c>
       <c r="J32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K32">
         <v>0.71</v>
@@ -2085,7 +2157,7 @@
         <v>2.35</v>
       </c>
       <c r="M32" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2099,13 +2171,13 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F33">
         <v>1.98</v>
@@ -2120,7 +2192,7 @@
         <v>0.26</v>
       </c>
       <c r="J33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K33">
         <v>0.74</v>
@@ -2129,7 +2201,7 @@
         <v>1.98</v>
       </c>
       <c r="M33" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2143,13 +2215,13 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F34">
         <v>1.72</v>
@@ -2164,7 +2236,7 @@
         <v>0.1</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K34">
         <v>0.9</v>
@@ -2173,7 +2245,7 @@
         <v>1.72</v>
       </c>
       <c r="M34" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N34">
         <v>3</v>
@@ -2187,13 +2259,13 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F35">
         <v>1.53</v>
@@ -2208,7 +2280,7 @@
         <v>0.13</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>0.87</v>
@@ -2217,7 +2289,7 @@
         <v>1.53</v>
       </c>
       <c r="M35" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -2231,13 +2303,13 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F36">
         <v>2.05</v>
@@ -2252,7 +2324,7 @@
         <v>0.14</v>
       </c>
       <c r="J36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K36">
         <v>0.86</v>
@@ -2261,7 +2333,7 @@
         <v>2.05</v>
       </c>
       <c r="M36" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -2275,13 +2347,13 @@
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F37">
         <v>1.7</v>
@@ -2296,7 +2368,7 @@
         <v>0.14</v>
       </c>
       <c r="J37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K37">
         <v>0.86</v>
@@ -2305,7 +2377,7 @@
         <v>1.7</v>
       </c>
       <c r="M37" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -2319,13 +2391,13 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F38">
         <v>1.42</v>
@@ -2340,7 +2412,7 @@
         <v>0.15</v>
       </c>
       <c r="J38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K38">
         <v>0.85</v>
@@ -2349,7 +2421,7 @@
         <v>1.42</v>
       </c>
       <c r="M38" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N38">
         <v>3</v>
@@ -2363,13 +2435,13 @@
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F39">
         <v>1.53</v>
@@ -2384,7 +2456,7 @@
         <v>0.11</v>
       </c>
       <c r="J39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K39">
         <v>0.89</v>
@@ -2393,7 +2465,7 @@
         <v>1.53</v>
       </c>
       <c r="M39" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N39">
         <v>3</v>
@@ -2407,13 +2479,13 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F40">
         <v>3.4</v>
@@ -2428,7 +2500,7 @@
         <v>0.75</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K40">
         <v>0.75</v>
@@ -2437,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="M40" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2451,13 +2523,13 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F41">
         <v>1.68</v>
@@ -2472,7 +2544,7 @@
         <v>0.21</v>
       </c>
       <c r="J41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K41">
         <v>0.79</v>
@@ -2481,7 +2553,7 @@
         <v>1.68</v>
       </c>
       <c r="M41" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2495,13 +2567,13 @@
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F42">
         <v>2.1</v>
@@ -2516,7 +2588,7 @@
         <v>0.29</v>
       </c>
       <c r="J42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K42">
         <v>0.71</v>
@@ -2525,7 +2597,7 @@
         <v>2.1</v>
       </c>
       <c r="M42" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2539,13 +2611,13 @@
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F43">
         <v>3.6</v>
@@ -2560,7 +2632,7 @@
         <v>0.71</v>
       </c>
       <c r="J43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K43">
         <v>0.71</v>
@@ -2569,7 +2641,7 @@
         <v>1.96</v>
       </c>
       <c r="M43" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2583,13 +2655,13 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F44">
         <v>2.45</v>
@@ -2604,7 +2676,7 @@
         <v>0.7</v>
       </c>
       <c r="J44" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K44">
         <v>0.7</v>
@@ -2613,7 +2685,7 @@
         <v>2.95</v>
       </c>
       <c r="M44" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2627,13 +2699,13 @@
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F45">
         <v>2.92</v>
@@ -2648,7 +2720,7 @@
         <v>0.29</v>
       </c>
       <c r="J45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K45">
         <v>0.71</v>
@@ -2657,7 +2729,7 @@
         <v>2.92</v>
       </c>
       <c r="M45" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2671,13 +2743,13 @@
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F46">
         <v>1.78</v>
@@ -2692,7 +2764,7 @@
         <v>0.17</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>0.83</v>
@@ -2701,7 +2773,7 @@
         <v>1.78</v>
       </c>
       <c r="M46" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N46">
         <v>3</v>
@@ -2715,13 +2787,13 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F47">
         <v>1.92</v>
@@ -2736,7 +2808,7 @@
         <v>0.17</v>
       </c>
       <c r="J47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K47">
         <v>0.83</v>
@@ -2745,7 +2817,7 @@
         <v>1.92</v>
       </c>
       <c r="M47" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N47">
         <v>3</v>
@@ -2759,13 +2831,13 @@
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F48">
         <v>1.96</v>
@@ -2780,7 +2852,7 @@
         <v>0.16</v>
       </c>
       <c r="J48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K48">
         <v>0.84</v>
@@ -2789,7 +2861,7 @@
         <v>1.96</v>
       </c>
       <c r="M48" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N48">
         <v>3</v>
@@ -2803,13 +2875,13 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F49">
         <v>3.05</v>
@@ -2824,7 +2896,7 @@
         <v>0.75</v>
       </c>
       <c r="J49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K49">
         <v>0.75</v>
@@ -2833,9 +2905,581 @@
         <v>2.28</v>
       </c>
       <c r="M49" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50">
+        <v>1.33</v>
+      </c>
+      <c r="G50">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H50">
+        <v>0.18</v>
+      </c>
+      <c r="I50">
+        <v>0.82</v>
+      </c>
+      <c r="J50" t="s">
+        <v>114</v>
+      </c>
+      <c r="K50">
+        <v>0.82</v>
+      </c>
+      <c r="L50">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="M50" t="s">
+        <v>124</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51">
+        <v>1.65</v>
+      </c>
+      <c r="G51">
+        <v>4.9</v>
+      </c>
+      <c r="H51">
+        <v>0.84</v>
+      </c>
+      <c r="I51">
+        <v>0.16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+      <c r="K51">
+        <v>0.84</v>
+      </c>
+      <c r="L51">
+        <v>1.65</v>
+      </c>
+      <c r="M51" t="s">
+        <v>124</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52">
+        <v>2.5</v>
+      </c>
+      <c r="G52">
+        <v>3.3</v>
+      </c>
+      <c r="H52">
+        <v>0.18</v>
+      </c>
+      <c r="I52">
+        <v>0.82</v>
+      </c>
+      <c r="J52" t="s">
+        <v>110</v>
+      </c>
+      <c r="K52">
+        <v>0.82</v>
+      </c>
+      <c r="L52">
+        <v>3.3</v>
+      </c>
+      <c r="M52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53">
+        <v>1.55</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>0.83</v>
+      </c>
+      <c r="I53">
+        <v>0.17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+      <c r="K53">
+        <v>0.83</v>
+      </c>
+      <c r="L53">
+        <v>1.55</v>
+      </c>
+      <c r="M53" t="s">
+        <v>124</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54">
+        <v>1.88</v>
+      </c>
+      <c r="G54">
+        <v>4.25</v>
+      </c>
+      <c r="H54">
+        <v>0.18</v>
+      </c>
+      <c r="I54">
+        <v>0.82</v>
+      </c>
+      <c r="J54" t="s">
+        <v>116</v>
+      </c>
+      <c r="K54">
+        <v>0.82</v>
+      </c>
+      <c r="L54">
+        <v>4.25</v>
+      </c>
+      <c r="M54" t="s">
+        <v>124</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55">
+        <v>1.57</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>0.93</v>
+      </c>
+      <c r="I55">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+      <c r="K55">
+        <v>0.93</v>
+      </c>
+      <c r="L55">
+        <v>1.57</v>
+      </c>
+      <c r="M55" t="s">
+        <v>124</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56">
+        <v>2.2</v>
+      </c>
+      <c r="G56">
+        <v>3.75</v>
+      </c>
+      <c r="H56">
+        <v>0.2</v>
+      </c>
+      <c r="I56">
+        <v>0.8</v>
+      </c>
+      <c r="J56" t="s">
+        <v>118</v>
+      </c>
+      <c r="K56">
+        <v>0.8</v>
+      </c>
+      <c r="L56">
+        <v>3.75</v>
+      </c>
+      <c r="M56" t="s">
+        <v>124</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1">
+        <v>37</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57">
+        <v>1.3</v>
+      </c>
+      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="H57">
+        <v>0.18</v>
+      </c>
+      <c r="I57">
+        <v>0.82</v>
+      </c>
+      <c r="J57" t="s">
+        <v>119</v>
+      </c>
+      <c r="K57">
+        <v>0.82</v>
+      </c>
+      <c r="L57">
+        <v>11</v>
+      </c>
+      <c r="M57" t="s">
+        <v>124</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58">
+        <v>3.05</v>
+      </c>
+      <c r="G58">
+        <v>2.48</v>
+      </c>
+      <c r="H58">
+        <v>0.18</v>
+      </c>
+      <c r="I58">
+        <v>0.82</v>
+      </c>
+      <c r="J58" t="s">
+        <v>120</v>
+      </c>
+      <c r="K58">
+        <v>0.82</v>
+      </c>
+      <c r="L58">
+        <v>2.48</v>
+      </c>
+      <c r="M58" t="s">
+        <v>124</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59">
+        <v>1.8</v>
+      </c>
+      <c r="G59">
+        <v>4.5</v>
+      </c>
+      <c r="H59">
+        <v>0.78</v>
+      </c>
+      <c r="I59">
+        <v>0.22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+      <c r="K59">
+        <v>0.78</v>
+      </c>
+      <c r="L59">
+        <v>1.8</v>
+      </c>
+      <c r="M59" t="s">
+        <v>125</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60">
+        <v>1.41</v>
+      </c>
+      <c r="G60">
+        <v>7.8</v>
+      </c>
+      <c r="H60">
+        <v>0.22</v>
+      </c>
+      <c r="I60">
+        <v>0.78</v>
+      </c>
+      <c r="J60" t="s">
+        <v>122</v>
+      </c>
+      <c r="K60">
+        <v>0.78</v>
+      </c>
+      <c r="L60">
+        <v>7.8</v>
+      </c>
+      <c r="M60" t="s">
+        <v>125</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61">
+        <v>1.8</v>
+      </c>
+      <c r="G61">
+        <v>4.75</v>
+      </c>
+      <c r="H61">
+        <v>0.79</v>
+      </c>
+      <c r="I61">
+        <v>0.21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+      <c r="K61">
+        <v>0.79</v>
+      </c>
+      <c r="L61">
+        <v>1.8</v>
+      </c>
+      <c r="M61" t="s">
+        <v>125</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62">
+        <v>1.63</v>
+      </c>
+      <c r="G62">
+        <v>5.5</v>
+      </c>
+      <c r="H62">
+        <v>0.76</v>
+      </c>
+      <c r="I62">
+        <v>0.24</v>
+      </c>
+      <c r="J62" t="s">
+        <v>44</v>
+      </c>
+      <c r="K62">
+        <v>0.76</v>
+      </c>
+      <c r="L62">
+        <v>1.63</v>
+      </c>
+      <c r="M62" t="s">
+        <v>125</v>
+      </c>
+      <c r="N62">
         <v>2</v>
       </c>
     </row>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -124,6 +124,18 @@
     <t>2023-08-14</t>
   </si>
   <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-08-19</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIGUE 1 </t>
   </si>
   <si>
@@ -289,12 +301,54 @@
     <t>Corinthians</t>
   </si>
   <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Eintracht Frankfurt</t>
-  </si>
-  <si>
     <t>Rayo Vallecano</t>
   </si>
   <si>
@@ -310,9 +364,6 @@
     <t>Girona</t>
   </si>
   <si>
-    <t>Torino</t>
-  </si>
-  <si>
     <t>Brentford</t>
   </si>
   <si>
@@ -331,12 +382,6 @@
     <t>Hertha BSC</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
     <t>Everton</t>
   </si>
   <si>
@@ -364,28 +409,31 @@
     <t>Bahia</t>
   </si>
   <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
     <t>Cruzeiro</t>
   </si>
   <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Granada CF</t>
-  </si>
-  <si>
     <t>Crystal Palace</t>
   </si>
   <si>
     <t>Sao Paulo</t>
   </si>
   <si>
-    <t>Metz</t>
-  </si>
-  <si>
     <t>Coritiba</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -752,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F2">
         <v>1.72</v>
@@ -828,7 +876,7 @@
         <v>0.2</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K2">
         <v>0.8</v>
@@ -837,7 +885,7 @@
         <v>1.72</v>
       </c>
       <c r="M2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -851,13 +899,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>2.7</v>
@@ -872,7 +920,7 @@
         <v>0.75</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>0.75</v>
@@ -881,7 +929,7 @@
         <v>2.55</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -895,13 +943,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F4">
         <v>1.65</v>
@@ -916,7 +964,7 @@
         <v>0.14</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>0.86</v>
@@ -925,7 +973,7 @@
         <v>1.65</v>
       </c>
       <c r="M4" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -939,13 +987,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>1.68</v>
@@ -960,7 +1008,7 @@
         <v>0.09</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>0.8100000000000001</v>
@@ -969,7 +1017,7 @@
         <v>1.68</v>
       </c>
       <c r="M5" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -983,13 +1031,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F6">
         <v>1.78</v>
@@ -1004,7 +1052,7 @@
         <v>0.09</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>0.8100000000000001</v>
@@ -1013,7 +1061,7 @@
         <v>1.78</v>
       </c>
       <c r="M6" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -1027,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F7">
         <v>1.48</v>
@@ -1048,7 +1096,7 @@
         <v>0.06</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K7">
         <v>0.9399999999999999</v>
@@ -1057,7 +1105,7 @@
         <v>1.48</v>
       </c>
       <c r="M7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -1071,13 +1119,13 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>2.02</v>
@@ -1092,7 +1140,7 @@
         <v>0.25</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K8">
         <v>0.75</v>
@@ -1101,7 +1149,7 @@
         <v>2.02</v>
       </c>
       <c r="M8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1115,13 +1163,13 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F9">
         <v>1.66</v>
@@ -1136,7 +1184,7 @@
         <v>0.23</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K9">
         <v>0.77</v>
@@ -1145,7 +1193,7 @@
         <v>1.66</v>
       </c>
       <c r="M9" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1159,13 +1207,13 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F10">
         <v>1.63</v>
@@ -1180,7 +1228,7 @@
         <v>0.23</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K10">
         <v>0.77</v>
@@ -1189,7 +1237,7 @@
         <v>1.63</v>
       </c>
       <c r="M10" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1203,13 +1251,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1224,7 +1272,7 @@
         <v>0.15</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K11">
         <v>0.85</v>
@@ -1233,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1247,13 +1295,13 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F12">
         <v>1.52</v>
@@ -1268,7 +1316,7 @@
         <v>0.09</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K12">
         <v>0.91</v>
@@ -1277,7 +1325,7 @@
         <v>1.52</v>
       </c>
       <c r="M12" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1291,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F13">
         <v>3.95</v>
@@ -1312,7 +1360,7 @@
         <v>0.73</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K13">
         <v>0.73</v>
@@ -1321,7 +1369,7 @@
         <v>1.98</v>
       </c>
       <c r="M13" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1335,13 +1383,13 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F14">
         <v>1.47</v>
@@ -1356,7 +1404,7 @@
         <v>0.14</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K14">
         <v>0.86</v>
@@ -1365,7 +1413,7 @@
         <v>1.47</v>
       </c>
       <c r="M14" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1379,13 +1427,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>1.55</v>
@@ -1400,7 +1448,7 @@
         <v>0.16</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K15">
         <v>0.84</v>
@@ -1409,7 +1457,7 @@
         <v>1.55</v>
       </c>
       <c r="M15" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -1423,13 +1471,13 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>1.65</v>
@@ -1444,7 +1492,7 @@
         <v>0.23</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K16">
         <v>0.77</v>
@@ -1453,7 +1501,7 @@
         <v>1.65</v>
       </c>
       <c r="M16" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1467,13 +1515,13 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F17">
         <v>1.68</v>
@@ -1488,7 +1536,7 @@
         <v>0.17</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K17">
         <v>0.83</v>
@@ -1497,7 +1545,7 @@
         <v>1.68</v>
       </c>
       <c r="M17" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1511,13 +1559,13 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F18">
         <v>1.68</v>
@@ -1532,7 +1580,7 @@
         <v>0.16</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>0.84</v>
@@ -1541,7 +1589,7 @@
         <v>1.68</v>
       </c>
       <c r="M18" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -1555,13 +1603,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F19">
         <v>1.47</v>
@@ -1576,7 +1624,7 @@
         <v>0.05</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K19">
         <v>0.95</v>
@@ -1585,7 +1633,7 @@
         <v>1.47</v>
       </c>
       <c r="M19" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -1599,13 +1647,13 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>2.25</v>
@@ -1620,7 +1668,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K20">
         <v>0.8100000000000001</v>
@@ -1629,7 +1677,7 @@
         <v>3.2</v>
       </c>
       <c r="M20" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -1643,13 +1691,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F21">
         <v>1.44</v>
@@ -1664,7 +1712,7 @@
         <v>0.18</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K21">
         <v>0.82</v>
@@ -1673,7 +1721,7 @@
         <v>1.44</v>
       </c>
       <c r="M21" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -1687,13 +1735,13 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F22">
         <v>2.7</v>
@@ -1708,7 +1756,7 @@
         <v>0.78</v>
       </c>
       <c r="J22" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="K22">
         <v>0.78</v>
@@ -1717,7 +1765,7 @@
         <v>2.55</v>
       </c>
       <c r="M22" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1731,13 +1779,13 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F23">
         <v>4.9</v>
@@ -1752,7 +1800,7 @@
         <v>0.75</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K23">
         <v>0.75</v>
@@ -1761,7 +1809,7 @@
         <v>1.68</v>
       </c>
       <c r="M23" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1775,13 +1823,13 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F24">
         <v>1.88</v>
@@ -1796,7 +1844,7 @@
         <v>0.25</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K24">
         <v>0.75</v>
@@ -1805,7 +1853,7 @@
         <v>1.88</v>
       </c>
       <c r="M24" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1819,13 +1867,13 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F25">
         <v>1.82</v>
@@ -1840,7 +1888,7 @@
         <v>0.25</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K25">
         <v>0.75</v>
@@ -1849,7 +1897,7 @@
         <v>1.82</v>
       </c>
       <c r="M25" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1863,13 +1911,13 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F26">
         <v>3.95</v>
@@ -1884,7 +1932,7 @@
         <v>0.74</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>0.74</v>
@@ -1893,7 +1941,7 @@
         <v>1.9</v>
       </c>
       <c r="M26" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1907,13 +1955,13 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F27">
         <v>2.72</v>
@@ -1928,7 +1976,7 @@
         <v>0.29</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K27">
         <v>0.71</v>
@@ -1937,7 +1985,7 @@
         <v>2.72</v>
       </c>
       <c r="M27" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1951,13 +1999,13 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F28">
         <v>2.38</v>
@@ -1972,7 +2020,7 @@
         <v>0.7</v>
       </c>
       <c r="J28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K28">
         <v>0.7</v>
@@ -1981,7 +2029,7 @@
         <v>3.25</v>
       </c>
       <c r="M28" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1995,13 +2043,13 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F29">
         <v>1.5</v>
@@ -2016,7 +2064,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K29">
         <v>0.93</v>
@@ -2025,7 +2073,7 @@
         <v>1.5</v>
       </c>
       <c r="M29" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N29">
         <v>3</v>
@@ -2039,13 +2087,13 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F30">
         <v>1.85</v>
@@ -2060,7 +2108,7 @@
         <v>0.28</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K30">
         <v>0.72</v>
@@ -2069,7 +2117,7 @@
         <v>1.85</v>
       </c>
       <c r="M30" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2083,13 +2131,13 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F31">
         <v>2.68</v>
@@ -2104,7 +2152,7 @@
         <v>0.27</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K31">
         <v>0.73</v>
@@ -2113,7 +2161,7 @@
         <v>2.68</v>
       </c>
       <c r="M31" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2127,13 +2175,13 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F32">
         <v>2.35</v>
@@ -2148,7 +2196,7 @@
         <v>0.29</v>
       </c>
       <c r="J32" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K32">
         <v>0.71</v>
@@ -2157,7 +2205,7 @@
         <v>2.35</v>
       </c>
       <c r="M32" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2171,13 +2219,13 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F33">
         <v>1.98</v>
@@ -2192,7 +2240,7 @@
         <v>0.26</v>
       </c>
       <c r="J33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K33">
         <v>0.74</v>
@@ -2201,7 +2249,7 @@
         <v>1.98</v>
       </c>
       <c r="M33" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2215,13 +2263,13 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>1.72</v>
@@ -2236,7 +2284,7 @@
         <v>0.1</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K34">
         <v>0.9</v>
@@ -2245,7 +2293,7 @@
         <v>1.72</v>
       </c>
       <c r="M34" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N34">
         <v>3</v>
@@ -2259,13 +2307,13 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F35">
         <v>1.53</v>
@@ -2280,7 +2328,7 @@
         <v>0.13</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K35">
         <v>0.87</v>
@@ -2289,7 +2337,7 @@
         <v>1.53</v>
       </c>
       <c r="M35" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -2303,13 +2351,13 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F36">
         <v>2.05</v>
@@ -2324,7 +2372,7 @@
         <v>0.14</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K36">
         <v>0.86</v>
@@ -2333,7 +2381,7 @@
         <v>2.05</v>
       </c>
       <c r="M36" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -2347,13 +2395,13 @@
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F37">
         <v>1.7</v>
@@ -2368,7 +2416,7 @@
         <v>0.14</v>
       </c>
       <c r="J37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K37">
         <v>0.86</v>
@@ -2377,7 +2425,7 @@
         <v>1.7</v>
       </c>
       <c r="M37" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -2391,13 +2439,13 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F38">
         <v>1.42</v>
@@ -2412,7 +2460,7 @@
         <v>0.15</v>
       </c>
       <c r="J38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K38">
         <v>0.85</v>
@@ -2421,7 +2469,7 @@
         <v>1.42</v>
       </c>
       <c r="M38" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N38">
         <v>3</v>
@@ -2435,13 +2483,13 @@
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F39">
         <v>1.53</v>
@@ -2456,7 +2504,7 @@
         <v>0.11</v>
       </c>
       <c r="J39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K39">
         <v>0.89</v>
@@ -2465,7 +2513,7 @@
         <v>1.53</v>
       </c>
       <c r="M39" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N39">
         <v>3</v>
@@ -2479,13 +2527,13 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F40">
         <v>3.4</v>
@@ -2500,7 +2548,7 @@
         <v>0.75</v>
       </c>
       <c r="J40" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="K40">
         <v>0.75</v>
@@ -2509,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="M40" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2523,13 +2571,13 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F41">
         <v>1.68</v>
@@ -2544,7 +2592,7 @@
         <v>0.21</v>
       </c>
       <c r="J41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K41">
         <v>0.79</v>
@@ -2553,7 +2601,7 @@
         <v>1.68</v>
       </c>
       <c r="M41" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2567,13 +2615,13 @@
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F42">
         <v>2.1</v>
@@ -2588,7 +2636,7 @@
         <v>0.29</v>
       </c>
       <c r="J42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K42">
         <v>0.71</v>
@@ -2597,7 +2645,7 @@
         <v>2.1</v>
       </c>
       <c r="M42" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2611,13 +2659,13 @@
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F43">
         <v>3.6</v>
@@ -2632,7 +2680,7 @@
         <v>0.71</v>
       </c>
       <c r="J43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K43">
         <v>0.71</v>
@@ -2641,7 +2689,7 @@
         <v>1.96</v>
       </c>
       <c r="M43" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2655,13 +2703,13 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F44">
         <v>2.45</v>
@@ -2676,7 +2724,7 @@
         <v>0.7</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K44">
         <v>0.7</v>
@@ -2685,7 +2733,7 @@
         <v>2.95</v>
       </c>
       <c r="M44" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2699,13 +2747,13 @@
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F45">
         <v>2.92</v>
@@ -2720,7 +2768,7 @@
         <v>0.29</v>
       </c>
       <c r="J45" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K45">
         <v>0.71</v>
@@ -2729,7 +2777,7 @@
         <v>2.92</v>
       </c>
       <c r="M45" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2743,13 +2791,13 @@
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F46">
         <v>1.78</v>
@@ -2764,7 +2812,7 @@
         <v>0.17</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K46">
         <v>0.83</v>
@@ -2773,7 +2821,7 @@
         <v>1.78</v>
       </c>
       <c r="M46" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N46">
         <v>3</v>
@@ -2787,13 +2835,13 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F47">
         <v>1.92</v>
@@ -2808,7 +2856,7 @@
         <v>0.17</v>
       </c>
       <c r="J47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K47">
         <v>0.83</v>
@@ -2817,7 +2865,7 @@
         <v>1.92</v>
       </c>
       <c r="M47" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N47">
         <v>3</v>
@@ -2831,13 +2879,13 @@
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F48">
         <v>1.96</v>
@@ -2852,7 +2900,7 @@
         <v>0.16</v>
       </c>
       <c r="J48" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K48">
         <v>0.84</v>
@@ -2861,7 +2909,7 @@
         <v>1.96</v>
       </c>
       <c r="M48" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N48">
         <v>3</v>
@@ -2875,13 +2923,13 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F49">
         <v>3.05</v>
@@ -2896,7 +2944,7 @@
         <v>0.75</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>0.75</v>
@@ -2905,7 +2953,7 @@
         <v>2.28</v>
       </c>
       <c r="M49" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -2913,19 +2961,19 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F50">
         <v>1.33</v>
@@ -2940,7 +2988,7 @@
         <v>0.82</v>
       </c>
       <c r="J50" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K50">
         <v>0.82</v>
@@ -2949,7 +2997,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M50" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N50">
         <v>3</v>
@@ -2957,19 +3005,19 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F51">
         <v>1.65</v>
@@ -2984,7 +3032,7 @@
         <v>0.16</v>
       </c>
       <c r="J51" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K51">
         <v>0.84</v>
@@ -2993,7 +3041,7 @@
         <v>1.65</v>
       </c>
       <c r="M51" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N51">
         <v>3</v>
@@ -3001,19 +3049,19 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F52">
         <v>2.5</v>
@@ -3028,7 +3076,7 @@
         <v>0.82</v>
       </c>
       <c r="J52" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K52">
         <v>0.82</v>
@@ -3037,7 +3085,7 @@
         <v>3.3</v>
       </c>
       <c r="M52" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N52">
         <v>3</v>
@@ -3045,19 +3093,19 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F53">
         <v>1.55</v>
@@ -3072,7 +3120,7 @@
         <v>0.17</v>
       </c>
       <c r="J53" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K53">
         <v>0.83</v>
@@ -3081,7 +3129,7 @@
         <v>1.55</v>
       </c>
       <c r="M53" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N53">
         <v>3</v>
@@ -3089,19 +3137,19 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E54" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F54">
         <v>1.88</v>
@@ -3116,7 +3164,7 @@
         <v>0.82</v>
       </c>
       <c r="J54" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="K54">
         <v>0.82</v>
@@ -3125,7 +3173,7 @@
         <v>4.25</v>
       </c>
       <c r="M54" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N54">
         <v>3</v>
@@ -3133,19 +3181,19 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F55">
         <v>1.57</v>
@@ -3160,7 +3208,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J55" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K55">
         <v>0.93</v>
@@ -3169,7 +3217,7 @@
         <v>1.57</v>
       </c>
       <c r="M55" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N55">
         <v>3</v>
@@ -3177,19 +3225,19 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F56">
         <v>2.2</v>
@@ -3204,7 +3252,7 @@
         <v>0.8</v>
       </c>
       <c r="J56" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="K56">
         <v>0.8</v>
@@ -3213,7 +3261,7 @@
         <v>3.75</v>
       </c>
       <c r="M56" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N56">
         <v>3</v>
@@ -3221,19 +3269,19 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F57">
         <v>1.3</v>
@@ -3248,7 +3296,7 @@
         <v>0.82</v>
       </c>
       <c r="J57" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="K57">
         <v>0.82</v>
@@ -3257,7 +3305,7 @@
         <v>11</v>
       </c>
       <c r="M57" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N57">
         <v>3</v>
@@ -3265,19 +3313,19 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F58">
         <v>3.05</v>
@@ -3292,7 +3340,7 @@
         <v>0.82</v>
       </c>
       <c r="J58" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K58">
         <v>0.82</v>
@@ -3301,7 +3349,7 @@
         <v>2.48</v>
       </c>
       <c r="M58" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="N58">
         <v>3</v>
@@ -3309,19 +3357,19 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F59">
         <v>1.8</v>
@@ -3336,7 +3384,7 @@
         <v>0.22</v>
       </c>
       <c r="J59" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K59">
         <v>0.78</v>
@@ -3345,7 +3393,7 @@
         <v>1.8</v>
       </c>
       <c r="M59" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3353,19 +3401,19 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F60">
         <v>1.41</v>
@@ -3380,7 +3428,7 @@
         <v>0.78</v>
       </c>
       <c r="J60" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="K60">
         <v>0.78</v>
@@ -3389,7 +3437,7 @@
         <v>7.8</v>
       </c>
       <c r="M60" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3397,19 +3445,19 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F61">
         <v>1.8</v>
@@ -3424,7 +3472,7 @@
         <v>0.21</v>
       </c>
       <c r="J61" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K61">
         <v>0.79</v>
@@ -3433,7 +3481,7 @@
         <v>1.8</v>
       </c>
       <c r="M61" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3441,19 +3489,19 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F62">
         <v>1.63</v>
@@ -3468,7 +3516,7 @@
         <v>0.24</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>0.76</v>
@@ -3477,10 +3525,890 @@
         <v>1.63</v>
       </c>
       <c r="M62" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="N62">
         <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63">
+        <v>1.9</v>
+      </c>
+      <c r="G63">
+        <v>4.45</v>
+      </c>
+      <c r="H63">
+        <v>0.18</v>
+      </c>
+      <c r="I63">
+        <v>0.82</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+      <c r="K63">
+        <v>0.82</v>
+      </c>
+      <c r="L63">
+        <v>4.45</v>
+      </c>
+      <c r="M63" t="s">
+        <v>140</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64">
+        <v>1.42</v>
+      </c>
+      <c r="G64">
+        <v>7.3</v>
+      </c>
+      <c r="H64">
+        <v>0.92</v>
+      </c>
+      <c r="I64">
+        <v>0.08</v>
+      </c>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+      <c r="K64">
+        <v>0.92</v>
+      </c>
+      <c r="L64">
+        <v>1.42</v>
+      </c>
+      <c r="M64" t="s">
+        <v>140</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="1">
+        <v>56</v>
+      </c>
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65">
+        <v>2.65</v>
+      </c>
+      <c r="G65">
+        <v>2.85</v>
+      </c>
+      <c r="H65">
+        <v>0.18</v>
+      </c>
+      <c r="I65">
+        <v>0.82</v>
+      </c>
+      <c r="J65" t="s">
+        <v>111</v>
+      </c>
+      <c r="K65">
+        <v>0.82</v>
+      </c>
+      <c r="L65">
+        <v>2.85</v>
+      </c>
+      <c r="M65" t="s">
+        <v>140</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="1">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66">
+        <v>3.3</v>
+      </c>
+      <c r="G66">
+        <v>2.4</v>
+      </c>
+      <c r="H66">
+        <v>0.19</v>
+      </c>
+      <c r="I66">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J66" t="s">
+        <v>53</v>
+      </c>
+      <c r="K66">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L66">
+        <v>2.4</v>
+      </c>
+      <c r="M66" t="s">
+        <v>140</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67">
+        <v>1.72</v>
+      </c>
+      <c r="G67">
+        <v>4.9</v>
+      </c>
+      <c r="H67">
+        <v>0.18</v>
+      </c>
+      <c r="I67">
+        <v>0.82</v>
+      </c>
+      <c r="J67" t="s">
+        <v>136</v>
+      </c>
+      <c r="K67">
+        <v>0.82</v>
+      </c>
+      <c r="L67">
+        <v>4.9</v>
+      </c>
+      <c r="M67" t="s">
+        <v>140</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68">
+        <v>3.95</v>
+      </c>
+      <c r="G68">
+        <v>1.82</v>
+      </c>
+      <c r="H68">
+        <v>0.18</v>
+      </c>
+      <c r="I68">
+        <v>0.82</v>
+      </c>
+      <c r="J68" t="s">
+        <v>84</v>
+      </c>
+      <c r="K68">
+        <v>0.82</v>
+      </c>
+      <c r="L68">
+        <v>1.82</v>
+      </c>
+      <c r="M68" t="s">
+        <v>140</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1">
+        <v>43</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69">
+        <v>1.4</v>
+      </c>
+      <c r="G69">
+        <v>8</v>
+      </c>
+      <c r="H69">
+        <v>0.18</v>
+      </c>
+      <c r="I69">
+        <v>0.82</v>
+      </c>
+      <c r="J69" t="s">
+        <v>137</v>
+      </c>
+      <c r="K69">
+        <v>0.82</v>
+      </c>
+      <c r="L69">
+        <v>8</v>
+      </c>
+      <c r="M69" t="s">
+        <v>140</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70">
+        <v>2.62</v>
+      </c>
+      <c r="G70">
+        <v>2.75</v>
+      </c>
+      <c r="H70">
+        <v>0.18</v>
+      </c>
+      <c r="I70">
+        <v>0.82</v>
+      </c>
+      <c r="J70" t="s">
+        <v>72</v>
+      </c>
+      <c r="K70">
+        <v>0.82</v>
+      </c>
+      <c r="L70">
+        <v>2.75</v>
+      </c>
+      <c r="M70" t="s">
+        <v>140</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1">
+        <v>50</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71">
+        <v>3.75</v>
+      </c>
+      <c r="G71">
+        <v>2.05</v>
+      </c>
+      <c r="H71">
+        <v>0.18</v>
+      </c>
+      <c r="I71">
+        <v>0.82</v>
+      </c>
+      <c r="J71" t="s">
+        <v>90</v>
+      </c>
+      <c r="K71">
+        <v>0.82</v>
+      </c>
+      <c r="L71">
+        <v>2.05</v>
+      </c>
+      <c r="M71" t="s">
+        <v>140</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72">
+        <v>1.68</v>
+      </c>
+      <c r="G72">
+        <v>5.35</v>
+      </c>
+      <c r="H72">
+        <v>0.83</v>
+      </c>
+      <c r="I72">
+        <v>0.17</v>
+      </c>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+      <c r="K72">
+        <v>0.83</v>
+      </c>
+      <c r="L72">
+        <v>1.68</v>
+      </c>
+      <c r="M72" t="s">
+        <v>140</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73">
+        <v>1.8</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>0.85</v>
+      </c>
+      <c r="I73">
+        <v>0.15</v>
+      </c>
+      <c r="J73" t="s">
+        <v>48</v>
+      </c>
+      <c r="K73">
+        <v>0.85</v>
+      </c>
+      <c r="L73">
+        <v>1.8</v>
+      </c>
+      <c r="M73" t="s">
+        <v>140</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74">
+        <v>3.25</v>
+      </c>
+      <c r="G74">
+        <v>2.22</v>
+      </c>
+      <c r="H74">
+        <v>0.18</v>
+      </c>
+      <c r="I74">
+        <v>0.82</v>
+      </c>
+      <c r="J74" t="s">
+        <v>64</v>
+      </c>
+      <c r="K74">
+        <v>0.82</v>
+      </c>
+      <c r="L74">
+        <v>2.22</v>
+      </c>
+      <c r="M74" t="s">
+        <v>140</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75">
+        <v>1.42</v>
+      </c>
+      <c r="G75">
+        <v>7.5</v>
+      </c>
+      <c r="H75">
+        <v>0.82</v>
+      </c>
+      <c r="I75">
+        <v>0.18</v>
+      </c>
+      <c r="J75" t="s">
+        <v>47</v>
+      </c>
+      <c r="K75">
+        <v>0.82</v>
+      </c>
+      <c r="L75">
+        <v>1.42</v>
+      </c>
+      <c r="M75" t="s">
+        <v>140</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1">
+        <v>21</v>
+      </c>
+      <c r="B76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76">
+        <v>1.65</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <v>0.18</v>
+      </c>
+      <c r="I76">
+        <v>0.82</v>
+      </c>
+      <c r="J76" t="s">
+        <v>138</v>
+      </c>
+      <c r="K76">
+        <v>0.82</v>
+      </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
+      <c r="M76" t="s">
+        <v>140</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77">
+        <v>1.78</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <v>0.2</v>
+      </c>
+      <c r="I77">
+        <v>0.8</v>
+      </c>
+      <c r="J77" t="s">
+        <v>85</v>
+      </c>
+      <c r="K77">
+        <v>0.8</v>
+      </c>
+      <c r="L77">
+        <v>5</v>
+      </c>
+      <c r="M77" t="s">
+        <v>140</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1">
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78">
+        <v>0.76</v>
+      </c>
+      <c r="I78">
+        <v>0.24</v>
+      </c>
+      <c r="J78" t="s">
+        <v>75</v>
+      </c>
+      <c r="K78">
+        <v>0.76</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78" t="s">
+        <v>141</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1">
+        <v>40</v>
+      </c>
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79">
+        <v>1.8</v>
+      </c>
+      <c r="G79">
+        <v>4.1</v>
+      </c>
+      <c r="H79">
+        <v>0.77</v>
+      </c>
+      <c r="I79">
+        <v>0.23</v>
+      </c>
+      <c r="J79" t="s">
+        <v>67</v>
+      </c>
+      <c r="K79">
+        <v>0.77</v>
+      </c>
+      <c r="L79">
+        <v>1.8</v>
+      </c>
+      <c r="M79" t="s">
+        <v>141</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1">
+        <v>41</v>
+      </c>
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" t="s">
+        <v>93</v>
+      </c>
+      <c r="F80">
+        <v>2.35</v>
+      </c>
+      <c r="G80">
+        <v>2.8</v>
+      </c>
+      <c r="H80">
+        <v>0.7</v>
+      </c>
+      <c r="I80">
+        <v>0.3</v>
+      </c>
+      <c r="J80" t="s">
+        <v>107</v>
+      </c>
+      <c r="K80">
+        <v>0.7</v>
+      </c>
+      <c r="L80">
+        <v>2.35</v>
+      </c>
+      <c r="M80" t="s">
+        <v>142</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1">
+        <v>23</v>
+      </c>
+      <c r="B81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81">
+        <v>2.4</v>
+      </c>
+      <c r="G81">
+        <v>3.05</v>
+      </c>
+      <c r="H81">
+        <v>0.72</v>
+      </c>
+      <c r="I81">
+        <v>0.28</v>
+      </c>
+      <c r="J81" t="s">
+        <v>108</v>
+      </c>
+      <c r="K81">
+        <v>0.72</v>
+      </c>
+      <c r="L81">
+        <v>2.4</v>
+      </c>
+      <c r="M81" t="s">
+        <v>142</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="1">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82">
+        <v>2.05</v>
+      </c>
+      <c r="G82">
+        <v>3.75</v>
+      </c>
+      <c r="H82">
+        <v>0.73</v>
+      </c>
+      <c r="I82">
+        <v>0.27</v>
+      </c>
+      <c r="J82" t="s">
+        <v>109</v>
+      </c>
+      <c r="K82">
+        <v>0.73</v>
+      </c>
+      <c r="L82">
+        <v>2.05</v>
+      </c>
+      <c r="M82" t="s">
+        <v>142</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -800,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>36</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>36</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>39</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>39</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>39</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>39</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>36</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>39</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>39</v>
@@ -4408,6 +4408,50 @@
         <v>142</v>
       </c>
       <c r="N82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1">
+        <v>41</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" t="s">
+        <v>93</v>
+      </c>
+      <c r="F83">
+        <v>2.38</v>
+      </c>
+      <c r="G83">
+        <v>2.78</v>
+      </c>
+      <c r="H83">
+        <v>0.7</v>
+      </c>
+      <c r="I83">
+        <v>0.3</v>
+      </c>
+      <c r="J83" t="s">
+        <v>107</v>
+      </c>
+      <c r="K83">
+        <v>0.7</v>
+      </c>
+      <c r="L83">
+        <v>2.38</v>
+      </c>
+      <c r="M83" t="s">
+        <v>142</v>
+      </c>
+      <c r="N83">
         <v>1</v>
       </c>
     </row>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan.hassan\Desktop\github\soccerprediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7246E605-56E1-40AE-94C3-51955E406A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$71</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="134">
   <si>
     <t>Date</t>
   </si>
@@ -124,15 +133,9 @@
     <t>2023-08-14</t>
   </si>
   <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
     <t>2023-08-20</t>
   </si>
   <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
     <t>2023-08-19</t>
   </si>
   <si>
@@ -301,9 +304,6 @@
     <t>Corinthians</t>
   </si>
   <si>
-    <t>Nottingham Forest</t>
-  </si>
-  <si>
     <t>Lille</t>
   </si>
   <si>
@@ -328,15 +328,6 @@
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
     <t>Lens</t>
   </si>
   <si>
@@ -422,15 +413,6 @@
   </si>
   <si>
     <t>Nantes</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
   </si>
   <si>
     <t>Fortaleza</t>
@@ -448,8 +430,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +441,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -501,24 +491,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -556,7 +555,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -590,6 +589,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -624,9 +624,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -799,14 +800,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -855,13 +862,13 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F2">
         <v>1.72</v>
@@ -876,7 +883,7 @@
         <v>0.2</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K2">
         <v>0.8</v>
@@ -885,13 +892,13 @@
         <v>1.72</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -899,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>2.7</v>
       </c>
       <c r="G3">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -920,22 +927,22 @@
         <v>0.75</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>0.75</v>
       </c>
       <c r="L3">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="M3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -943,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F4">
         <v>1.65</v>
@@ -961,10 +968,10 @@
         <v>0.86</v>
       </c>
       <c r="I4">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>0.86</v>
@@ -973,13 +980,13 @@
         <v>1.65</v>
       </c>
       <c r="M4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -987,13 +994,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F5">
         <v>1.68</v>
@@ -1002,28 +1009,28 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="I5">
         <v>0.09</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="L5">
         <v>1.68</v>
       </c>
       <c r="M5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1031,13 +1038,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F6">
         <v>1.78</v>
@@ -1046,28 +1053,28 @@
         <v>2.5</v>
       </c>
       <c r="H6">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="I6">
         <v>0.09</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="L6">
         <v>1.78</v>
       </c>
       <c r="M6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1075,13 +1082,13 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>1.48</v>
@@ -1090,28 +1097,28 @@
         <v>2.7</v>
       </c>
       <c r="H7">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="I7">
         <v>0.06</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="L7">
         <v>1.48</v>
       </c>
       <c r="M7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1119,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>2.02</v>
       </c>
       <c r="G8">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H8">
         <v>0.75</v>
@@ -1140,7 +1147,7 @@
         <v>0.25</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K8">
         <v>0.75</v>
@@ -1149,13 +1156,13 @@
         <v>2.02</v>
       </c>
       <c r="M8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,13 +1170,13 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F9">
         <v>1.66</v>
@@ -1184,7 +1191,7 @@
         <v>0.23</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>0.77</v>
@@ -1193,13 +1200,13 @@
         <v>1.66</v>
       </c>
       <c r="M9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1207,13 +1214,13 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F10">
         <v>1.63</v>
@@ -1228,7 +1235,7 @@
         <v>0.23</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>0.77</v>
@@ -1237,13 +1244,13 @@
         <v>1.63</v>
       </c>
       <c r="M10" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1251,13 +1258,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1272,7 +1279,7 @@
         <v>0.15</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K11">
         <v>0.85</v>
@@ -1281,13 +1288,13 @@
         <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1295,13 +1302,13 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F12">
         <v>1.52</v>
@@ -1316,7 +1323,7 @@
         <v>0.09</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K12">
         <v>0.91</v>
@@ -1325,13 +1332,13 @@
         <v>1.52</v>
       </c>
       <c r="M12" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1339,13 +1346,13 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F13">
         <v>3.95</v>
@@ -1360,7 +1367,7 @@
         <v>0.73</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K13">
         <v>0.73</v>
@@ -1369,145 +1376,145 @@
         <v>1.98</v>
       </c>
       <c r="M13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F14">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="G14">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="I14">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="J14" t="s">
         <v>56</v>
       </c>
       <c r="K14">
+        <v>0.77</v>
+      </c>
+      <c r="L14">
+        <v>1.65</v>
+      </c>
+      <c r="M14" t="s">
+        <v>132</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15">
+        <v>1.47</v>
+      </c>
+      <c r="G15">
+        <v>6.7</v>
+      </c>
+      <c r="H15">
         <v>0.86</v>
       </c>
-      <c r="L14">
+      <c r="I15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15">
+        <v>0.86</v>
+      </c>
+      <c r="L15">
         <v>1.47</v>
       </c>
-      <c r="M14" t="s">
-        <v>140</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15">
-        <v>1.55</v>
-      </c>
-      <c r="G15">
-        <v>5.9</v>
-      </c>
-      <c r="H15">
-        <v>0.84</v>
-      </c>
-      <c r="I15">
-        <v>0.16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15">
-        <v>0.84</v>
-      </c>
-      <c r="L15">
-        <v>1.55</v>
-      </c>
       <c r="M15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="F16">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="H16">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="I16">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="L16">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="M16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="N16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1515,13 +1522,13 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F17">
         <v>1.68</v>
@@ -1536,7 +1543,7 @@
         <v>0.17</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K17">
         <v>0.83</v>
@@ -1545,145 +1552,145 @@
         <v>1.68</v>
       </c>
       <c r="M17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
         <v>115</v>
       </c>
       <c r="F18">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="H18">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="I18">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="K18">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="M18" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="N18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F19">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="G19">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="I19">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="L19">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="M19" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="F20">
-        <v>2.25</v>
+        <v>1.47</v>
       </c>
       <c r="G20">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="H20">
-        <v>0.19</v>
+        <v>0.95</v>
       </c>
       <c r="I20">
-        <v>0.8100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1691,13 +1698,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F21">
         <v>1.44</v>
@@ -1712,7 +1719,7 @@
         <v>0.18</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21">
         <v>0.82</v>
@@ -1721,233 +1728,233 @@
         <v>1.44</v>
       </c>
       <c r="M21" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="F22">
-        <v>2.7</v>
+        <v>3.95</v>
       </c>
       <c r="G22">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="H22">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I22">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="L22">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="M22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="N22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
         <v>51</v>
       </c>
-      <c r="E23" t="s">
-        <v>120</v>
-      </c>
       <c r="F23">
-        <v>4.9</v>
+        <v>2.25</v>
       </c>
       <c r="G23">
-        <v>1.68</v>
+        <v>3.2</v>
       </c>
       <c r="H23">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I23">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
       <c r="L23">
-        <v>1.68</v>
+        <v>3.2</v>
       </c>
       <c r="M23" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="N23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="F24">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="G24">
-        <v>3.95</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H24">
-        <v>0.75</v>
+        <v>0.22</v>
       </c>
       <c r="I24">
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="L24">
-        <v>1.88</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="M24" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F25">
-        <v>1.82</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G25">
-        <v>4.35</v>
+        <v>1.68</v>
       </c>
       <c r="H25">
+        <v>0.25</v>
+      </c>
+      <c r="I25">
         <v>0.75</v>
       </c>
-      <c r="I25">
-        <v>0.25</v>
-      </c>
       <c r="J25" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="K25">
         <v>0.75</v>
       </c>
       <c r="L25">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="M25" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F26">
+        <v>1.88</v>
+      </c>
+      <c r="G26">
         <v>3.95</v>
       </c>
-      <c r="G26">
-        <v>1.9</v>
-      </c>
       <c r="H26">
-        <v>0.26</v>
+        <v>0.75</v>
       </c>
       <c r="I26">
-        <v>0.74</v>
+        <v>0.25</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="L26">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="M26" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1955,13 +1962,13 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F27">
         <v>2.72</v>
@@ -1973,10 +1980,10 @@
         <v>0.71</v>
       </c>
       <c r="I27">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K27">
         <v>0.71</v>
@@ -1985,13 +1992,13 @@
         <v>2.72</v>
       </c>
       <c r="M27" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1999,13 +2006,13 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F28">
         <v>2.38</v>
@@ -2020,7 +2027,7 @@
         <v>0.7</v>
       </c>
       <c r="J28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K28">
         <v>0.7</v>
@@ -2029,13 +2036,13 @@
         <v>3.25</v>
       </c>
       <c r="M28" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2043,13 +2050,13 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F29">
         <v>1.5</v>
@@ -2061,10 +2068,10 @@
         <v>0.93</v>
       </c>
       <c r="I29">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K29">
         <v>0.93</v>
@@ -2073,13 +2080,13 @@
         <v>1.5</v>
       </c>
       <c r="M29" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2087,28 +2094,28 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F30">
         <v>1.85</v>
       </c>
       <c r="G30">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="H30">
         <v>0.72</v>
       </c>
       <c r="I30">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K30">
         <v>0.72</v>
@@ -2117,13 +2124,13 @@
         <v>1.85</v>
       </c>
       <c r="M30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2131,13 +2138,13 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F31">
         <v>2.68</v>
@@ -2152,7 +2159,7 @@
         <v>0.27</v>
       </c>
       <c r="J31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K31">
         <v>0.73</v>
@@ -2161,13 +2168,13 @@
         <v>2.68</v>
       </c>
       <c r="M31" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2175,13 +2182,13 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F32">
         <v>2.35</v>
@@ -2193,10 +2200,10 @@
         <v>0.71</v>
       </c>
       <c r="I32">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K32">
         <v>0.71</v>
@@ -2205,13 +2212,13 @@
         <v>2.35</v>
       </c>
       <c r="M32" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2219,13 +2226,13 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F33">
         <v>1.98</v>
@@ -2240,7 +2247,7 @@
         <v>0.26</v>
       </c>
       <c r="J33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K33">
         <v>0.74</v>
@@ -2249,497 +2256,497 @@
         <v>1.98</v>
       </c>
       <c r="M33" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34">
+        <v>2.1</v>
+      </c>
+      <c r="G34">
+        <v>3.5</v>
+      </c>
+      <c r="H34">
+        <v>0.71</v>
+      </c>
+      <c r="I34">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34">
+        <v>0.71</v>
+      </c>
+      <c r="L34">
+        <v>2.1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>133</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35">
+        <v>3.6</v>
+      </c>
+      <c r="G35">
+        <v>1.96</v>
+      </c>
+      <c r="H35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I35">
+        <v>0.71</v>
+      </c>
+      <c r="J35" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35">
+        <v>0.71</v>
+      </c>
+      <c r="L35">
+        <v>1.96</v>
+      </c>
+      <c r="M35" t="s">
+        <v>133</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34">
-        <v>1.72</v>
-      </c>
-      <c r="G34">
-        <v>4.75</v>
-      </c>
-      <c r="H34">
-        <v>0.9</v>
-      </c>
-      <c r="I34">
-        <v>0.1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34">
-        <v>0.9</v>
-      </c>
-      <c r="L34">
-        <v>1.72</v>
-      </c>
-      <c r="M34" t="s">
-        <v>140</v>
-      </c>
-      <c r="N34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35">
-        <v>1.53</v>
-      </c>
-      <c r="G35">
-        <v>6</v>
-      </c>
-      <c r="H35">
-        <v>0.87</v>
-      </c>
-      <c r="I35">
-        <v>0.13</v>
-      </c>
-      <c r="J35" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35">
-        <v>0.87</v>
-      </c>
-      <c r="L35">
-        <v>1.53</v>
-      </c>
-      <c r="M35" t="s">
-        <v>140</v>
-      </c>
-      <c r="N35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="1">
-        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F36">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="H36">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="I36">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="J36" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L36">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="M36" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F37">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="G37">
-        <v>4.35</v>
+        <v>6</v>
       </c>
       <c r="H37">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I37">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="J37" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="L37">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="M37" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F38">
-        <v>1.42</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I38">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K38">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="L38">
-        <v>1.42</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="M38" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F39">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="G39">
-        <v>6.5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="H39">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="I39">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K39">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="L39">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="M39" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="F40">
-        <v>3.4</v>
+        <v>1.42</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H40">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
       <c r="I40">
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="J40" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="K40">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="M40" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="N40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F41">
-        <v>1.68</v>
+        <v>3.4</v>
       </c>
       <c r="G41">
-        <v>4.45</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>0.79</v>
+        <v>0.25</v>
       </c>
       <c r="I41">
-        <v>0.21</v>
+        <v>0.75</v>
       </c>
       <c r="J41" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="K41">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="L41">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="M41" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42">
+        <v>1.68</v>
+      </c>
+      <c r="G42">
+        <v>4.45</v>
+      </c>
+      <c r="H42">
+        <v>0.79</v>
+      </c>
+      <c r="I42">
+        <v>0.21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42">
+        <v>0.79</v>
+      </c>
+      <c r="L42">
+        <v>1.68</v>
+      </c>
+      <c r="M42" t="s">
+        <v>132</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="D42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42">
-        <v>2.1</v>
-      </c>
-      <c r="G42">
-        <v>3.5</v>
-      </c>
-      <c r="H42">
-        <v>0.71</v>
-      </c>
-      <c r="I42">
-        <v>0.29</v>
-      </c>
-      <c r="J42" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42">
-        <v>0.71</v>
-      </c>
-      <c r="L42">
-        <v>2.1</v>
-      </c>
-      <c r="M42" t="s">
-        <v>142</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="1">
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F43">
-        <v>3.6</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G43">
-        <v>1.96</v>
+        <v>2.95</v>
       </c>
       <c r="H43">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="I43">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="J43" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="K43">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="L43">
-        <v>1.96</v>
+        <v>2.95</v>
       </c>
       <c r="M43" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F44">
-        <v>2.45</v>
+        <v>1.53</v>
       </c>
       <c r="G44">
-        <v>2.95</v>
+        <v>6.5</v>
       </c>
       <c r="H44">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
       <c r="I44">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
       <c r="J44" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="K44">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="L44">
-        <v>2.95</v>
+        <v>1.53</v>
       </c>
       <c r="M44" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="N44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2747,13 +2754,13 @@
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F45">
         <v>2.92</v>
@@ -2765,10 +2772,10 @@
         <v>0.71</v>
       </c>
       <c r="I45">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K45">
         <v>0.71</v>
@@ -2777,77 +2784,77 @@
         <v>2.92</v>
       </c>
       <c r="M45" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46">
+        <v>3.05</v>
+      </c>
+      <c r="G46">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H46">
+        <v>0.25</v>
+      </c>
+      <c r="I46">
+        <v>0.75</v>
+      </c>
+      <c r="J46" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46">
+        <v>0.75</v>
+      </c>
+      <c r="L46">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M46" t="s">
+        <v>132</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46">
-        <v>1.78</v>
-      </c>
-      <c r="G46">
-        <v>4.45</v>
-      </c>
-      <c r="H46">
-        <v>0.83</v>
-      </c>
-      <c r="I46">
-        <v>0.17</v>
-      </c>
-      <c r="J46" t="s">
-        <v>50</v>
-      </c>
-      <c r="K46">
-        <v>0.83</v>
-      </c>
-      <c r="L46">
-        <v>1.78</v>
-      </c>
-      <c r="M46" t="s">
-        <v>140</v>
-      </c>
-      <c r="N46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="1">
-        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
         <v>66</v>
       </c>
       <c r="F47">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="G47">
-        <v>3.9</v>
+        <v>4.45</v>
       </c>
       <c r="H47">
         <v>0.83</v>
@@ -2856,110 +2863,110 @@
         <v>0.17</v>
       </c>
       <c r="J47" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>0.83</v>
       </c>
       <c r="L47">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="M47" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F48">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G48">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H48">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I48">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="J48" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="K48">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="L48">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="M48" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="F49">
-        <v>3.05</v>
+        <v>1.96</v>
       </c>
       <c r="G49">
-        <v>2.28</v>
+        <v>3.75</v>
       </c>
       <c r="H49">
-        <v>0.25</v>
+        <v>0.84</v>
       </c>
       <c r="I49">
-        <v>0.75</v>
+        <v>0.16</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="L49">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="M49" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="N49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2967,19 +2974,19 @@
         <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F50">
         <v>1.33</v>
       </c>
       <c r="G50">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H50">
         <v>0.18</v>
@@ -2988,22 +2995,22 @@
         <v>0.82</v>
       </c>
       <c r="J50" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K50">
         <v>0.82</v>
       </c>
       <c r="L50">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M50" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3011,19 +3018,19 @@
         <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F51">
         <v>1.65</v>
       </c>
       <c r="G51">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H51">
         <v>0.84</v>
@@ -3032,7 +3039,7 @@
         <v>0.16</v>
       </c>
       <c r="J51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K51">
         <v>0.84</v>
@@ -3041,13 +3048,13 @@
         <v>1.65</v>
       </c>
       <c r="M51" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3055,13 +3062,13 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F52">
         <v>2.5</v>
@@ -3076,7 +3083,7 @@
         <v>0.82</v>
       </c>
       <c r="J52" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K52">
         <v>0.82</v>
@@ -3085,1377 +3092,855 @@
         <v>3.3</v>
       </c>
       <c r="M52" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F53">
-        <v>1.55</v>
+        <v>3.05</v>
       </c>
       <c r="G53">
-        <v>6</v>
+        <v>2.48</v>
       </c>
       <c r="H53">
-        <v>0.83</v>
+        <v>0.18</v>
       </c>
       <c r="I53">
-        <v>0.17</v>
+        <v>0.82</v>
       </c>
       <c r="J53" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="K53">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="L53">
-        <v>1.55</v>
+        <v>2.48</v>
       </c>
       <c r="M53" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
         <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F54">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="G54">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="H54">
-        <v>0.18</v>
+        <v>0.76</v>
       </c>
       <c r="I54">
-        <v>0.82</v>
+        <v>0.24</v>
       </c>
       <c r="J54" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="L54">
-        <v>4.25</v>
+        <v>1.63</v>
       </c>
       <c r="M54" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="N54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F55">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G55">
         <v>6</v>
       </c>
       <c r="H55">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="I55">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="J55" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="L55">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="M55" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F56">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="G56">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="H56">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I56">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="J56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K56">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="M56" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
         <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F57">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="G57">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="H57">
-        <v>0.18</v>
+        <v>0.78</v>
       </c>
       <c r="I57">
-        <v>0.82</v>
+        <v>0.22</v>
       </c>
       <c r="J57" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K57">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="L57">
-        <v>11</v>
+        <v>1.8</v>
       </c>
       <c r="M57" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="N57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
         <v>91</v>
       </c>
       <c r="E58" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58">
+        <v>1.41</v>
+      </c>
+      <c r="G58">
+        <v>7.8</v>
+      </c>
+      <c r="H58">
+        <v>0.22</v>
+      </c>
+      <c r="I58">
+        <v>0.78</v>
+      </c>
+      <c r="J58" t="s">
+        <v>97</v>
+      </c>
+      <c r="K58">
+        <v>0.78</v>
+      </c>
+      <c r="L58">
+        <v>7.8</v>
+      </c>
+      <c r="M58" t="s">
         <v>132</v>
       </c>
-      <c r="F58">
-        <v>3.05</v>
-      </c>
-      <c r="G58">
-        <v>2.48</v>
-      </c>
-      <c r="H58">
-        <v>0.18</v>
-      </c>
-      <c r="I58">
-        <v>0.82</v>
-      </c>
-      <c r="J58" t="s">
-        <v>132</v>
-      </c>
-      <c r="K58">
-        <v>0.82</v>
-      </c>
-      <c r="L58">
-        <v>2.48</v>
-      </c>
-      <c r="M58" t="s">
-        <v>140</v>
-      </c>
       <c r="N58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
       </c>
       <c r="E59" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F59">
         <v>1.8</v>
       </c>
       <c r="G59">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H59">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="I59">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="J59" t="s">
         <v>92</v>
       </c>
       <c r="K59">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="L59">
         <v>1.8</v>
       </c>
       <c r="M59" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60">
+        <v>1.57</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>0.93</v>
+      </c>
+      <c r="I60">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+      <c r="K60">
+        <v>0.93</v>
+      </c>
+      <c r="L60">
+        <v>1.57</v>
+      </c>
+      <c r="M60" t="s">
+        <v>131</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
         <v>40</v>
       </c>
-      <c r="D60" t="s">
-        <v>93</v>
-      </c>
-      <c r="E60" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60">
-        <v>1.41</v>
-      </c>
-      <c r="G60">
-        <v>7.8</v>
-      </c>
-      <c r="H60">
-        <v>0.22</v>
-      </c>
-      <c r="I60">
-        <v>0.78</v>
-      </c>
-      <c r="J60" t="s">
-        <v>100</v>
-      </c>
-      <c r="K60">
-        <v>0.78</v>
-      </c>
-      <c r="L60">
-        <v>7.8</v>
-      </c>
-      <c r="M60" t="s">
-        <v>141</v>
-      </c>
-      <c r="N60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" t="s">
-        <v>43</v>
-      </c>
       <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G61">
+        <v>3.75</v>
+      </c>
+      <c r="H61">
+        <v>0.2</v>
+      </c>
+      <c r="I61">
+        <v>0.8</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+      <c r="K61">
+        <v>0.8</v>
+      </c>
+      <c r="L61">
+        <v>3.75</v>
+      </c>
+      <c r="M61" t="s">
+        <v>131</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" t="s">
         <v>94</v>
       </c>
-      <c r="E61" t="s">
-        <v>134</v>
-      </c>
-      <c r="F61">
+      <c r="F62">
+        <v>1.3</v>
+      </c>
+      <c r="G62">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>0.18</v>
+      </c>
+      <c r="I62">
+        <v>0.82</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+      <c r="K62">
+        <v>0.82</v>
+      </c>
+      <c r="L62">
+        <v>11</v>
+      </c>
+      <c r="M62" t="s">
+        <v>131</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63">
         <v>1.8</v>
       </c>
-      <c r="G61">
-        <v>4.75</v>
-      </c>
-      <c r="H61">
-        <v>0.79</v>
-      </c>
-      <c r="I61">
-        <v>0.21</v>
-      </c>
-      <c r="J61" t="s">
-        <v>94</v>
-      </c>
-      <c r="K61">
-        <v>0.79</v>
-      </c>
-      <c r="L61">
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>0.85</v>
+      </c>
+      <c r="I63">
+        <v>0.15</v>
+      </c>
+      <c r="J63" t="s">
+        <v>46</v>
+      </c>
+      <c r="K63">
+        <v>0.85</v>
+      </c>
+      <c r="L63">
         <v>1.8</v>
       </c>
-      <c r="M61" t="s">
-        <v>141</v>
-      </c>
-      <c r="N61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62">
-        <v>1.63</v>
-      </c>
-      <c r="G62">
-        <v>5.5</v>
-      </c>
-      <c r="H62">
-        <v>0.76</v>
-      </c>
-      <c r="I62">
-        <v>0.24</v>
-      </c>
-      <c r="J62" t="s">
-        <v>48</v>
-      </c>
-      <c r="K62">
-        <v>0.76</v>
-      </c>
-      <c r="L62">
-        <v>1.63</v>
-      </c>
-      <c r="M62" t="s">
-        <v>141</v>
-      </c>
-      <c r="N62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63">
-        <v>1.9</v>
-      </c>
-      <c r="G63">
-        <v>4.45</v>
-      </c>
-      <c r="H63">
-        <v>0.18</v>
-      </c>
-      <c r="I63">
-        <v>0.82</v>
-      </c>
-      <c r="J63" t="s">
-        <v>91</v>
-      </c>
-      <c r="K63">
-        <v>0.82</v>
-      </c>
-      <c r="L63">
-        <v>4.45</v>
-      </c>
       <c r="M63" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" t="s">
-        <v>96</v>
+        <v>39</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="F64">
         <v>1.42</v>
       </c>
       <c r="G64">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H64">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="I64">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="J64" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="K64">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="L64">
         <v>1.42</v>
       </c>
       <c r="M64" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65">
+        <v>2.4</v>
+      </c>
+      <c r="G65">
+        <v>3.05</v>
+      </c>
+      <c r="H65">
+        <v>0.72</v>
+      </c>
+      <c r="I65">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+      <c r="K65">
+        <v>0.72</v>
+      </c>
+      <c r="L65">
+        <v>2.4</v>
+      </c>
+      <c r="M65" t="s">
+        <v>133</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>80</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G66">
+        <v>3.75</v>
+      </c>
+      <c r="H66">
+        <v>0.73</v>
+      </c>
+      <c r="I66">
+        <v>0.27</v>
+      </c>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+      <c r="K66">
+        <v>0.73</v>
+      </c>
+      <c r="L66">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M66" t="s">
+        <v>133</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
         <v>38</v>
       </c>
-      <c r="C65" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" t="s">
-        <v>111</v>
-      </c>
-      <c r="F65">
-        <v>2.65</v>
-      </c>
-      <c r="G65">
-        <v>2.85</v>
-      </c>
-      <c r="H65">
-        <v>0.18</v>
-      </c>
-      <c r="I65">
-        <v>0.82</v>
-      </c>
-      <c r="J65" t="s">
-        <v>111</v>
-      </c>
-      <c r="K65">
-        <v>0.82</v>
-      </c>
-      <c r="L65">
-        <v>2.85</v>
-      </c>
-      <c r="M65" t="s">
-        <v>140</v>
-      </c>
-      <c r="N65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" t="s">
-        <v>53</v>
-      </c>
-      <c r="F66">
-        <v>3.3</v>
-      </c>
-      <c r="G66">
-        <v>2.4</v>
-      </c>
-      <c r="H66">
-        <v>0.19</v>
-      </c>
-      <c r="I66">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="J66" t="s">
-        <v>53</v>
-      </c>
-      <c r="K66">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="L66">
-        <v>2.4</v>
-      </c>
-      <c r="M66" t="s">
-        <v>140</v>
-      </c>
-      <c r="N66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" t="s">
-        <v>43</v>
-      </c>
       <c r="D67" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E67" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F67">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="G67">
-        <v>4.9</v>
+        <v>7.3</v>
       </c>
       <c r="H67">
-        <v>0.18</v>
+        <v>0.92</v>
       </c>
       <c r="I67">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="J67" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="K67">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="L67">
-        <v>4.9</v>
+        <v>1.42</v>
       </c>
       <c r="M67" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N67">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
         <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
         <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="F68">
-        <v>3.95</v>
+        <v>1.68</v>
       </c>
       <c r="G68">
-        <v>1.82</v>
+        <v>5.35</v>
       </c>
       <c r="H68">
-        <v>0.18</v>
+        <v>0.83</v>
       </c>
       <c r="I68">
-        <v>0.82</v>
+        <v>0.17</v>
       </c>
       <c r="J68" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K68">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="L68">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="M68" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>0.76</v>
+      </c>
+      <c r="I69">
+        <v>0.24</v>
+      </c>
+      <c r="J69" t="s">
+        <v>73</v>
+      </c>
+      <c r="K69">
+        <v>0.76</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>132</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s">
+        <v>65</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70">
+        <v>1.8</v>
+      </c>
+      <c r="G70">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H70">
+        <v>0.77</v>
+      </c>
+      <c r="I70">
+        <v>0.23</v>
+      </c>
+      <c r="J70" t="s">
+        <v>65</v>
+      </c>
+      <c r="K70">
+        <v>0.77</v>
+      </c>
+      <c r="L70">
+        <v>1.8</v>
+      </c>
+      <c r="M70" t="s">
+        <v>132</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
         <v>41</v>
       </c>
-      <c r="D69" t="s">
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" t="s">
         <v>101</v>
       </c>
-      <c r="E69" t="s">
-        <v>137</v>
-      </c>
-      <c r="F69">
-        <v>1.4</v>
-      </c>
-      <c r="G69">
-        <v>8</v>
-      </c>
-      <c r="H69">
-        <v>0.18</v>
-      </c>
-      <c r="I69">
-        <v>0.82</v>
-      </c>
-      <c r="J69" t="s">
-        <v>137</v>
-      </c>
-      <c r="K69">
-        <v>0.82</v>
-      </c>
-      <c r="L69">
-        <v>8</v>
-      </c>
-      <c r="M69" t="s">
-        <v>140</v>
-      </c>
-      <c r="N69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" t="s">
-        <v>72</v>
-      </c>
-      <c r="F70">
-        <v>2.62</v>
-      </c>
-      <c r="G70">
-        <v>2.75</v>
-      </c>
-      <c r="H70">
-        <v>0.18</v>
-      </c>
-      <c r="I70">
-        <v>0.82</v>
-      </c>
-      <c r="J70" t="s">
-        <v>72</v>
-      </c>
-      <c r="K70">
-        <v>0.82</v>
-      </c>
-      <c r="L70">
-        <v>2.75</v>
-      </c>
-      <c r="M70" t="s">
-        <v>140</v>
-      </c>
-      <c r="N70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" t="s">
-        <v>73</v>
-      </c>
       <c r="E71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F71">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="G71">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="H71">
-        <v>0.18</v>
+        <v>0.7</v>
       </c>
       <c r="I71">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="J71" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="K71">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="L71">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="M71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" t="s">
-        <v>122</v>
-      </c>
-      <c r="F72">
-        <v>1.68</v>
-      </c>
-      <c r="G72">
-        <v>5.35</v>
-      </c>
-      <c r="H72">
-        <v>0.83</v>
-      </c>
-      <c r="I72">
-        <v>0.17</v>
-      </c>
-      <c r="J72" t="s">
-        <v>103</v>
-      </c>
-      <c r="K72">
-        <v>0.83</v>
-      </c>
-      <c r="L72">
-        <v>1.68</v>
-      </c>
-      <c r="M72" t="s">
-        <v>140</v>
-      </c>
-      <c r="N72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" t="s">
-        <v>79</v>
-      </c>
-      <c r="F73">
-        <v>1.8</v>
-      </c>
-      <c r="G73">
-        <v>5</v>
-      </c>
-      <c r="H73">
-        <v>0.85</v>
-      </c>
-      <c r="I73">
-        <v>0.15</v>
-      </c>
-      <c r="J73" t="s">
-        <v>48</v>
-      </c>
-      <c r="K73">
-        <v>0.85</v>
-      </c>
-      <c r="L73">
-        <v>1.8</v>
-      </c>
-      <c r="M73" t="s">
-        <v>140</v>
-      </c>
-      <c r="N73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>39</v>
-      </c>
-      <c r="C74" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" t="s">
-        <v>64</v>
-      </c>
-      <c r="F74">
-        <v>3.25</v>
-      </c>
-      <c r="G74">
-        <v>2.22</v>
-      </c>
-      <c r="H74">
-        <v>0.18</v>
-      </c>
-      <c r="I74">
-        <v>0.82</v>
-      </c>
-      <c r="J74" t="s">
-        <v>64</v>
-      </c>
-      <c r="K74">
-        <v>0.82</v>
-      </c>
-      <c r="L74">
-        <v>2.22</v>
-      </c>
-      <c r="M74" t="s">
-        <v>140</v>
-      </c>
-      <c r="N74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" t="s">
-        <v>41</v>
-      </c>
-      <c r="D75" t="s">
-        <v>47</v>
-      </c>
-      <c r="E75" t="s">
-        <v>65</v>
-      </c>
-      <c r="F75">
-        <v>1.42</v>
-      </c>
-      <c r="G75">
-        <v>7.5</v>
-      </c>
-      <c r="H75">
-        <v>0.82</v>
-      </c>
-      <c r="I75">
-        <v>0.18</v>
-      </c>
-      <c r="J75" t="s">
-        <v>47</v>
-      </c>
-      <c r="K75">
-        <v>0.82</v>
-      </c>
-      <c r="L75">
-        <v>1.42</v>
-      </c>
-      <c r="M75" t="s">
-        <v>140</v>
-      </c>
-      <c r="N75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" t="s">
-        <v>41</v>
-      </c>
-      <c r="D76" t="s">
-        <v>105</v>
-      </c>
-      <c r="E76" t="s">
-        <v>138</v>
-      </c>
-      <c r="F76">
-        <v>1.65</v>
-      </c>
-      <c r="G76">
-        <v>5</v>
-      </c>
-      <c r="H76">
-        <v>0.18</v>
-      </c>
-      <c r="I76">
-        <v>0.82</v>
-      </c>
-      <c r="J76" t="s">
-        <v>138</v>
-      </c>
-      <c r="K76">
-        <v>0.82</v>
-      </c>
-      <c r="L76">
-        <v>5</v>
-      </c>
-      <c r="M76" t="s">
-        <v>140</v>
-      </c>
-      <c r="N76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F77">
-        <v>1.78</v>
-      </c>
-      <c r="G77">
-        <v>5</v>
-      </c>
-      <c r="H77">
-        <v>0.2</v>
-      </c>
-      <c r="I77">
-        <v>0.8</v>
-      </c>
-      <c r="J77" t="s">
-        <v>85</v>
-      </c>
-      <c r="K77">
-        <v>0.8</v>
-      </c>
-      <c r="L77">
-        <v>5</v>
-      </c>
-      <c r="M77" t="s">
-        <v>140</v>
-      </c>
-      <c r="N77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D78" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" t="s">
-        <v>58</v>
-      </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
-      <c r="G78">
-        <v>4</v>
-      </c>
-      <c r="H78">
-        <v>0.76</v>
-      </c>
-      <c r="I78">
-        <v>0.24</v>
-      </c>
-      <c r="J78" t="s">
-        <v>75</v>
-      </c>
-      <c r="K78">
-        <v>0.76</v>
-      </c>
-      <c r="L78">
-        <v>2</v>
-      </c>
-      <c r="M78" t="s">
-        <v>141</v>
-      </c>
-      <c r="N78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" t="s">
-        <v>40</v>
-      </c>
-      <c r="D79" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79">
-        <v>1.8</v>
-      </c>
-      <c r="G79">
-        <v>4.1</v>
-      </c>
-      <c r="H79">
-        <v>0.77</v>
-      </c>
-      <c r="I79">
-        <v>0.23</v>
-      </c>
-      <c r="J79" t="s">
-        <v>67</v>
-      </c>
-      <c r="K79">
-        <v>0.77</v>
-      </c>
-      <c r="L79">
-        <v>1.8</v>
-      </c>
-      <c r="M79" t="s">
-        <v>141</v>
-      </c>
-      <c r="N79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>37</v>
-      </c>
-      <c r="C80" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" t="s">
-        <v>93</v>
-      </c>
-      <c r="F80">
-        <v>2.35</v>
-      </c>
-      <c r="G80">
-        <v>2.8</v>
-      </c>
-      <c r="H80">
-        <v>0.7</v>
-      </c>
-      <c r="I80">
-        <v>0.3</v>
-      </c>
-      <c r="J80" t="s">
-        <v>107</v>
-      </c>
-      <c r="K80">
-        <v>0.7</v>
-      </c>
-      <c r="L80">
-        <v>2.35</v>
-      </c>
-      <c r="M80" t="s">
-        <v>142</v>
-      </c>
-      <c r="N80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>39</v>
-      </c>
-      <c r="C81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" t="s">
-        <v>108</v>
-      </c>
-      <c r="E81" t="s">
-        <v>68</v>
-      </c>
-      <c r="F81">
-        <v>2.4</v>
-      </c>
-      <c r="G81">
-        <v>3.05</v>
-      </c>
-      <c r="H81">
-        <v>0.72</v>
-      </c>
-      <c r="I81">
-        <v>0.28</v>
-      </c>
-      <c r="J81" t="s">
-        <v>108</v>
-      </c>
-      <c r="K81">
-        <v>0.72</v>
-      </c>
-      <c r="L81">
-        <v>2.4</v>
-      </c>
-      <c r="M81" t="s">
-        <v>142</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" t="s">
-        <v>43</v>
-      </c>
-      <c r="D82" t="s">
-        <v>109</v>
-      </c>
-      <c r="E82" t="s">
-        <v>139</v>
-      </c>
-      <c r="F82">
-        <v>2.05</v>
-      </c>
-      <c r="G82">
-        <v>3.75</v>
-      </c>
-      <c r="H82">
-        <v>0.73</v>
-      </c>
-      <c r="I82">
-        <v>0.27</v>
-      </c>
-      <c r="J82" t="s">
-        <v>109</v>
-      </c>
-      <c r="K82">
-        <v>0.73</v>
-      </c>
-      <c r="L82">
-        <v>2.05</v>
-      </c>
-      <c r="M82" t="s">
-        <v>142</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="1">
-        <v>41</v>
-      </c>
-      <c r="B83" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D83" t="s">
-        <v>107</v>
-      </c>
-      <c r="E83" t="s">
-        <v>93</v>
-      </c>
-      <c r="F83">
-        <v>2.38</v>
-      </c>
-      <c r="G83">
-        <v>2.78</v>
-      </c>
-      <c r="H83">
-        <v>0.7</v>
-      </c>
-      <c r="I83">
-        <v>0.3</v>
-      </c>
-      <c r="J83" t="s">
-        <v>107</v>
-      </c>
-      <c r="K83">
-        <v>0.7</v>
-      </c>
-      <c r="L83">
-        <v>2.38</v>
-      </c>
-      <c r="M83" t="s">
-        <v>142</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:N71" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N71">
+      <sortCondition ref="B1:B71"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan.hassan\Desktop\github\soccerprediction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7246E605-56E1-40AE-94C3-51955E406A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$71</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -82,15 +73,15 @@
     <t>2023-05-03</t>
   </si>
   <si>
+    <t>2023-05-05</t>
+  </si>
+  <si>
     <t>2023-05-06</t>
   </si>
   <si>
     <t>2023-05-08</t>
   </si>
   <si>
-    <t>2023-05-05</t>
-  </si>
-  <si>
     <t>2023-05-12</t>
   </si>
   <si>
@@ -106,6 +97,9 @@
     <t>2023-05-21</t>
   </si>
   <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
     <t>2023-05-24</t>
   </si>
   <si>
@@ -115,15 +109,12 @@
     <t>2023-05-28</t>
   </si>
   <si>
-    <t>2023-05-23</t>
+    <t>2023-06-03</t>
   </si>
   <si>
     <t>2023-06-04</t>
   </si>
   <si>
-    <t>2023-06-03</t>
-  </si>
-  <si>
     <t>2023-08-12</t>
   </si>
   <si>
@@ -133,12 +124,12 @@
     <t>2023-08-14</t>
   </si>
   <si>
+    <t>2023-08-19</t>
+  </si>
+  <si>
     <t>2023-08-20</t>
   </si>
   <si>
-    <t>2023-08-19</t>
-  </si>
-  <si>
     <t xml:space="preserve">LIGUE 1 </t>
   </si>
   <si>
@@ -187,39 +178,39 @@
     <t>Sampdoria</t>
   </si>
   <si>
+    <t>Mainz 05</t>
+  </si>
+  <si>
     <t>Liverpool</t>
   </si>
   <si>
     <t>Udinese</t>
   </si>
   <si>
-    <t>Mainz 05</t>
-  </si>
-  <si>
     <t>Lazio</t>
   </si>
   <si>
+    <t>Koln</t>
+  </si>
+  <si>
     <t>Real Madrid</t>
   </si>
   <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
     <t>Valladolid</t>
   </si>
   <si>
-    <t>Internazionale</t>
-  </si>
-  <si>
     <t>Stuttgart</t>
   </si>
   <si>
     <t>Fiorentina</t>
   </si>
   <si>
-    <t>Koln</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
     <t>Monaco</t>
   </si>
   <si>
@@ -238,6 +229,9 @@
     <t>Brest</t>
   </si>
   <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
     <t>Real Betis</t>
   </si>
   <si>
@@ -247,27 +241,24 @@
     <t>Union Berlin</t>
   </si>
   <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
     <t>Chelsea</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
     <t>Roma</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
     <t>Brighton and Hove Albion</t>
   </si>
   <si>
@@ -277,12 +268,24 @@
     <t>Las Palmas</t>
   </si>
   <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
     <t>Atletico Mineiro</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
     <t>Palmeiras</t>
   </si>
   <si>
@@ -292,130 +295,118 @@
     <t>Atletico Madrid</t>
   </si>
   <si>
-    <t>Sheffield Utd</t>
-  </si>
-  <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Corinthians</t>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Internacional</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Schalke 04</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Espanyol</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Hertha BSC</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Leeds United</t>
+  </si>
+  <si>
+    <t>Clermont Foot</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
     <t>Granada CF</t>
   </si>
   <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Eintracht Frankfurt</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Internacional</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>Schalke 04</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Espanyol</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Bayer Leverkusen</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Hertha BSC</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Leeds United</t>
-  </si>
-  <si>
-    <t>Clermont Foot</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Newcastle United</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Sao Paulo</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
+    <t>Fortaleza</t>
   </si>
   <si>
     <t>Nantes</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -430,8 +421,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,14 +432,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -491,33 +474,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -555,7 +529,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -589,7 +563,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -624,10 +597,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -800,20 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -868,7 +834,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F2">
         <v>1.72</v>
@@ -898,7 +864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -918,7 +884,7 @@
         <v>2.7</v>
       </c>
       <c r="G3">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -933,7 +899,7 @@
         <v>0.75</v>
       </c>
       <c r="L3">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="M3" t="s">
         <v>132</v>
@@ -942,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -956,7 +922,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4">
         <v>1.65</v>
@@ -968,7 +934,7 @@
         <v>0.86</v>
       </c>
       <c r="I4">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
@@ -986,7 +952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1000,7 +966,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>1.68</v>
@@ -1009,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I5">
         <v>0.09</v>
@@ -1018,7 +984,7 @@
         <v>46</v>
       </c>
       <c r="K5">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L5">
         <v>1.68</v>
@@ -1030,7 +996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1044,7 +1010,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F6">
         <v>1.78</v>
@@ -1053,7 +1019,7 @@
         <v>2.5</v>
       </c>
       <c r="H6">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I6">
         <v>0.09</v>
@@ -1062,7 +1028,7 @@
         <v>47</v>
       </c>
       <c r="K6">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L6">
         <v>1.78</v>
@@ -1074,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1088,7 +1054,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F7">
         <v>1.48</v>
@@ -1097,7 +1063,7 @@
         <v>2.7</v>
       </c>
       <c r="H7">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I7">
         <v>0.06</v>
@@ -1106,7 +1072,7 @@
         <v>48</v>
       </c>
       <c r="K7">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L7">
         <v>1.48</v>
@@ -1118,7 +1084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1132,13 +1098,13 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>2.02</v>
       </c>
       <c r="G8">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="H8">
         <v>0.75</v>
@@ -1147,7 +1113,7 @@
         <v>0.25</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K8">
         <v>0.75</v>
@@ -1162,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1176,7 +1142,7 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F9">
         <v>1.66</v>
@@ -1206,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1220,7 +1186,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F10">
         <v>1.63</v>
@@ -1250,7 +1216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1264,7 +1230,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1294,7 +1260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1308,7 +1274,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F12">
         <v>1.52</v>
@@ -1338,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1352,7 +1318,7 @@
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F13">
         <v>3.95</v>
@@ -1367,7 +1333,7 @@
         <v>0.73</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K13">
         <v>0.73</v>
@@ -1382,21 +1348,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F14">
         <v>1.65</v>
@@ -1411,7 +1377,7 @@
         <v>0.23</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>0.77</v>
@@ -1426,21 +1392,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F15">
         <v>1.47</v>
@@ -1452,10 +1418,10 @@
         <v>0.86</v>
       </c>
       <c r="I15">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>0.86</v>
@@ -1470,18 +1436,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
@@ -1499,7 +1465,7 @@
         <v>0.16</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16">
         <v>0.84</v>
@@ -1514,7 +1480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1528,7 +1494,7 @@
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F17">
         <v>1.68</v>
@@ -1558,9 +1524,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1569,16 +1535,16 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F18">
         <v>1.82</v>
       </c>
       <c r="G18">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="H18">
         <v>0.75</v>
@@ -1587,7 +1553,7 @@
         <v>0.25</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K18">
         <v>0.75</v>
@@ -1602,9 +1568,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1616,7 +1582,7 @@
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F19">
         <v>1.68</v>
@@ -1646,9 +1612,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1657,10 +1623,10 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20">
         <v>1.47</v>
@@ -1675,7 +1641,7 @@
         <v>0.05</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K20">
         <v>0.95</v>
@@ -1690,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1704,7 +1670,7 @@
         <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F21">
         <v>1.44</v>
@@ -1734,9 +1700,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1745,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>48</v>
@@ -1778,9 +1744,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1789,7 +1755,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
         <v>51</v>
@@ -1804,13 +1770,13 @@
         <v>0.19</v>
       </c>
       <c r="I23">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J23" t="s">
         <v>51</v>
       </c>
       <c r="K23">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L23">
         <v>3.2</v>
@@ -1822,9 +1788,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -1833,16 +1799,16 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F24">
         <v>2.7</v>
       </c>
       <c r="G24">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="H24">
         <v>0.22</v>
@@ -1851,13 +1817,13 @@
         <v>0.78</v>
       </c>
       <c r="J24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K24">
         <v>0.78</v>
       </c>
       <c r="L24">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="M24" t="s">
         <v>132</v>
@@ -1866,9 +1832,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -1880,10 +1846,10 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F25">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="G25">
         <v>1.68</v>
@@ -1895,7 +1861,7 @@
         <v>0.75</v>
       </c>
       <c r="J25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K25">
         <v>0.75</v>
@@ -1910,9 +1876,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1921,10 +1887,10 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>1.88</v>
@@ -1939,7 +1905,7 @@
         <v>0.25</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K26">
         <v>0.75</v>
@@ -1954,7 +1920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1968,7 +1934,7 @@
         <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F27">
         <v>2.72</v>
@@ -1980,7 +1946,7 @@
         <v>0.71</v>
       </c>
       <c r="I27">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="J27" t="s">
         <v>65</v>
@@ -1998,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2012,7 +1978,7 @@
         <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F28">
         <v>2.38</v>
@@ -2027,7 +1993,7 @@
         <v>0.7</v>
       </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K28">
         <v>0.7</v>
@@ -2042,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2053,10 +2019,10 @@
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F29">
         <v>1.5</v>
@@ -2068,10 +2034,10 @@
         <v>0.93</v>
       </c>
       <c r="I29">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29">
         <v>0.93</v>
@@ -2086,7 +2052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2100,19 +2066,19 @@
         <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F30">
         <v>1.85</v>
       </c>
       <c r="G30">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="H30">
         <v>0.72</v>
       </c>
       <c r="I30">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="J30" t="s">
         <v>67</v>
@@ -2130,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2144,7 +2110,7 @@
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F31">
         <v>2.68</v>
@@ -2174,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2188,7 +2154,7 @@
         <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F32">
         <v>2.35</v>
@@ -2200,7 +2166,7 @@
         <v>0.71</v>
       </c>
       <c r="I32">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="J32" t="s">
         <v>69</v>
@@ -2218,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2232,7 +2198,7 @@
         <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F33">
         <v>1.98</v>
@@ -2262,21 +2228,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F34">
         <v>2.1</v>
@@ -2288,10 +2254,10 @@
         <v>0.71</v>
       </c>
       <c r="I34">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="J34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K34">
         <v>0.71</v>
@@ -2306,21 +2272,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F35">
         <v>3.6</v>
@@ -2329,13 +2295,13 @@
         <v>1.96</v>
       </c>
       <c r="H35">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="I35">
         <v>0.71</v>
       </c>
       <c r="J35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K35">
         <v>0.71</v>
@@ -2350,21 +2316,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F36">
         <v>1.72</v>
@@ -2379,7 +2345,7 @@
         <v>0.1</v>
       </c>
       <c r="J36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K36">
         <v>0.9</v>
@@ -2394,12 +2360,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
@@ -2408,7 +2374,7 @@
         <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F37">
         <v>1.53</v>
@@ -2438,24 +2404,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F38">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -2464,16 +2430,16 @@
         <v>0.86</v>
       </c>
       <c r="I38">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K38">
         <v>0.86</v>
       </c>
       <c r="L38">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="M38" t="s">
         <v>131</v>
@@ -2482,36 +2448,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F39">
         <v>1.7</v>
       </c>
       <c r="G39">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="H39">
         <v>0.86</v>
       </c>
       <c r="I39">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K39">
         <v>0.86</v>
@@ -2526,18 +2492,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
         <v>44</v>
@@ -2555,7 +2521,7 @@
         <v>0.15</v>
       </c>
       <c r="J40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K40">
         <v>0.85</v>
@@ -2570,12 +2536,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
@@ -2584,7 +2550,7 @@
         <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F41">
         <v>3.4</v>
@@ -2599,7 +2565,7 @@
         <v>0.75</v>
       </c>
       <c r="J41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K41">
         <v>0.75</v>
@@ -2614,12 +2580,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -2628,7 +2594,7 @@
         <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F42">
         <v>1.68</v>
@@ -2658,24 +2624,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F43">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="G43">
         <v>2.95</v>
@@ -2687,7 +2653,7 @@
         <v>0.7</v>
       </c>
       <c r="J43" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K43">
         <v>0.7</v>
@@ -2702,21 +2668,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
         <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F44">
         <v>1.53</v>
@@ -2731,7 +2697,7 @@
         <v>0.11</v>
       </c>
       <c r="J44" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K44">
         <v>0.89</v>
@@ -2746,12 +2712,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
         <v>42</v>
@@ -2760,7 +2726,7 @@
         <v>78</v>
       </c>
       <c r="E45" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F45">
         <v>2.92</v>
@@ -2772,7 +2738,7 @@
         <v>0.71</v>
       </c>
       <c r="I45">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="J45" t="s">
         <v>78</v>
@@ -2790,18 +2756,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
         <v>43</v>
@@ -2810,7 +2776,7 @@
         <v>3.05</v>
       </c>
       <c r="G46">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2825,7 +2791,7 @@
         <v>0.75</v>
       </c>
       <c r="L46">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="M46" t="s">
         <v>132</v>
@@ -2834,12 +2800,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
         <v>41</v>
@@ -2878,21 +2844,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F48">
         <v>1.92</v>
@@ -2907,7 +2873,7 @@
         <v>0.17</v>
       </c>
       <c r="J48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K48">
         <v>0.83</v>
@@ -2922,21 +2888,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F49">
         <v>1.96</v>
@@ -2951,7 +2917,7 @@
         <v>0.16</v>
       </c>
       <c r="J49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49">
         <v>0.84</v>
@@ -2966,7 +2932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2980,13 +2946,13 @@
         <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F50">
         <v>1.33</v>
       </c>
       <c r="G50">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H50">
         <v>0.18</v>
@@ -2995,13 +2961,13 @@
         <v>0.82</v>
       </c>
       <c r="J50" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K50">
         <v>0.82</v>
       </c>
       <c r="L50">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M50" t="s">
         <v>131</v>
@@ -3010,7 +2976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3024,13 +2990,13 @@
         <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F51">
         <v>1.65</v>
       </c>
       <c r="G51">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H51">
         <v>0.84</v>
@@ -3054,7 +3020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3068,7 +3034,7 @@
         <v>83</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F52">
         <v>2.5</v>
@@ -3083,7 +3049,7 @@
         <v>0.82</v>
       </c>
       <c r="J52" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K52">
         <v>0.82</v>
@@ -3098,9 +3064,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
@@ -3109,10 +3075,10 @@
         <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F53">
         <v>3.05</v>
@@ -3127,7 +3093,7 @@
         <v>0.82</v>
       </c>
       <c r="J53" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K53">
         <v>0.82</v>
@@ -3142,9 +3108,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>33</v>
@@ -3156,7 +3122,7 @@
         <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F54">
         <v>1.63</v>
@@ -3186,9 +3152,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>34</v>
@@ -3197,10 +3163,10 @@
         <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F55">
         <v>1.55</v>
@@ -3215,7 +3181,7 @@
         <v>0.17</v>
       </c>
       <c r="J55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K55">
         <v>0.83</v>
@@ -3230,9 +3196,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>34</v>
@@ -3241,10 +3207,10 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F56">
         <v>1.88</v>
@@ -3259,7 +3225,7 @@
         <v>0.82</v>
       </c>
       <c r="J56" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="K56">
         <v>0.82</v>
@@ -3274,9 +3240,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>34</v>
@@ -3285,10 +3251,10 @@
         <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E57" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F57">
         <v>1.8</v>
@@ -3303,7 +3269,7 @@
         <v>0.22</v>
       </c>
       <c r="J57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K57">
         <v>0.78</v>
@@ -3318,9 +3284,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>34</v>
@@ -3329,10 +3295,10 @@
         <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="F58">
         <v>1.41</v>
@@ -3347,7 +3313,7 @@
         <v>0.78</v>
       </c>
       <c r="J58" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="K58">
         <v>0.78</v>
@@ -3362,9 +3328,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>34</v>
@@ -3373,10 +3339,10 @@
         <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F59">
         <v>1.8</v>
@@ -3391,7 +3357,7 @@
         <v>0.21</v>
       </c>
       <c r="J59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K59">
         <v>0.79</v>
@@ -3406,9 +3372,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>35</v>
@@ -3417,10 +3383,10 @@
         <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F60">
         <v>1.57</v>
@@ -3432,10 +3398,10 @@
         <v>0.93</v>
       </c>
       <c r="I60">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J60" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K60">
         <v>0.93</v>
@@ -3450,9 +3416,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>35</v>
@@ -3461,13 +3427,13 @@
         <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F61">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G61">
         <v>3.75</v>
@@ -3479,7 +3445,7 @@
         <v>0.8</v>
       </c>
       <c r="J61" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="K61">
         <v>0.8</v>
@@ -3494,9 +3460,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>35</v>
@@ -3505,10 +3471,10 @@
         <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E62" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="F62">
         <v>1.3</v>
@@ -3523,7 +3489,7 @@
         <v>0.82</v>
       </c>
       <c r="J62" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K62">
         <v>0.82</v>
@@ -3538,12 +3504,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
         <v>40</v>
@@ -3552,7 +3518,7 @@
         <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F63">
         <v>1.8</v>
@@ -3582,21 +3548,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" t="s">
         <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F64">
         <v>1.42</v>
@@ -3626,18 +3592,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14">
       <c r="A65" s="1">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
         <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E65" t="s">
         <v>66</v>
@@ -3652,10 +3618,10 @@
         <v>0.72</v>
       </c>
       <c r="I65">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="J65" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K65">
         <v>0.72</v>
@@ -3670,24 +3636,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14">
       <c r="A66" s="1">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
         <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F66">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="G66">
         <v>3.75</v>
@@ -3699,13 +3665,13 @@
         <v>0.27</v>
       </c>
       <c r="J66" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K66">
         <v>0.73</v>
       </c>
       <c r="L66">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="M66" t="s">
         <v>133</v>
@@ -3714,21 +3680,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14">
       <c r="A67" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
         <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F67">
         <v>1.42</v>
@@ -3743,7 +3709,7 @@
         <v>0.08</v>
       </c>
       <c r="J67" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K67">
         <v>0.92</v>
@@ -3758,21 +3724,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14">
       <c r="A68" s="1">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C68" t="s">
         <v>42</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F68">
         <v>1.68</v>
@@ -3787,7 +3753,7 @@
         <v>0.17</v>
       </c>
       <c r="J68" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K68">
         <v>0.83</v>
@@ -3802,21 +3768,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14">
       <c r="A69" s="1">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C69" t="s">
         <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -3831,7 +3797,7 @@
         <v>0.24</v>
       </c>
       <c r="J69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K69">
         <v>0.76</v>
@@ -3846,12 +3812,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14">
       <c r="A70" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
         <v>38</v>
@@ -3866,7 +3832,7 @@
         <v>1.8</v>
       </c>
       <c r="G70">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="H70">
         <v>0.77</v>
@@ -3890,21 +3856,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14">
       <c r="A71" s="1">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F71">
         <v>2.38</v>
@@ -3919,7 +3885,7 @@
         <v>0.3</v>
       </c>
       <c r="J71" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K71">
         <v>0.7</v>
@@ -3935,12 +3901,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N71" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N71">
-      <sortCondition ref="B1:B71"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="142">
   <si>
     <t>Date</t>
   </si>
@@ -130,6 +130,15 @@
     <t>2023-08-20</t>
   </si>
   <si>
+    <t>2023-09-02</t>
+  </si>
+  <si>
+    <t>2023-09-03</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIGUE 1 </t>
   </si>
   <si>
@@ -310,6 +319,21 @@
     <t>Lens</t>
   </si>
   <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
@@ -331,21 +355,12 @@
     <t>Girona</t>
   </si>
   <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
     <t>Hertha BSC</t>
   </si>
   <si>
     <t>Getafe</t>
   </si>
   <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
     <t>Bayer Leverkusen</t>
   </si>
   <si>
@@ -407,6 +422,15 @@
   </si>
   <si>
     <t>Nantes</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Genoa</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -773,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F2">
         <v>1.72</v>
@@ -849,7 +873,7 @@
         <v>0.2</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K2">
         <v>0.8</v>
@@ -858,7 +882,7 @@
         <v>1.72</v>
       </c>
       <c r="M2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -872,13 +896,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>2.7</v>
@@ -893,7 +917,7 @@
         <v>0.75</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>0.75</v>
@@ -902,7 +926,7 @@
         <v>2.55</v>
       </c>
       <c r="M3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -916,13 +940,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F4">
         <v>1.65</v>
@@ -937,7 +961,7 @@
         <v>0.14</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>0.86</v>
@@ -946,7 +970,7 @@
         <v>1.65</v>
       </c>
       <c r="M4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -960,13 +984,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F5">
         <v>1.68</v>
@@ -981,7 +1005,7 @@
         <v>0.09</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>0.8100000000000001</v>
@@ -990,7 +1014,7 @@
         <v>1.68</v>
       </c>
       <c r="M5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -1004,13 +1028,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F6">
         <v>1.78</v>
@@ -1025,7 +1049,7 @@
         <v>0.09</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>0.8100000000000001</v>
@@ -1034,7 +1058,7 @@
         <v>1.78</v>
       </c>
       <c r="M6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -1048,13 +1072,13 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F7">
         <v>1.48</v>
@@ -1069,7 +1093,7 @@
         <v>0.06</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K7">
         <v>0.9399999999999999</v>
@@ -1078,7 +1102,7 @@
         <v>1.48</v>
       </c>
       <c r="M7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -1092,13 +1116,13 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>2.02</v>
@@ -1113,7 +1137,7 @@
         <v>0.25</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K8">
         <v>0.75</v>
@@ -1122,7 +1146,7 @@
         <v>2.02</v>
       </c>
       <c r="M8" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1136,13 +1160,13 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>1.66</v>
@@ -1157,7 +1181,7 @@
         <v>0.23</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K9">
         <v>0.77</v>
@@ -1166,7 +1190,7 @@
         <v>1.66</v>
       </c>
       <c r="M9" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1180,13 +1204,13 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>1.63</v>
@@ -1201,7 +1225,7 @@
         <v>0.23</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K10">
         <v>0.77</v>
@@ -1210,7 +1234,7 @@
         <v>1.63</v>
       </c>
       <c r="M10" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1224,13 +1248,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1245,7 +1269,7 @@
         <v>0.15</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K11">
         <v>0.85</v>
@@ -1254,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1268,13 +1292,13 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F12">
         <v>1.52</v>
@@ -1289,7 +1313,7 @@
         <v>0.09</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>0.91</v>
@@ -1298,7 +1322,7 @@
         <v>1.52</v>
       </c>
       <c r="M12" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1312,10 +1336,10 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>105</v>
@@ -1342,7 +1366,7 @@
         <v>1.98</v>
       </c>
       <c r="M13" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1356,13 +1380,13 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F14">
         <v>1.65</v>
@@ -1377,7 +1401,7 @@
         <v>0.23</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K14">
         <v>0.77</v>
@@ -1386,7 +1410,7 @@
         <v>1.65</v>
       </c>
       <c r="M14" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1400,13 +1424,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F15">
         <v>1.47</v>
@@ -1421,7 +1445,7 @@
         <v>0.14</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K15">
         <v>0.86</v>
@@ -1430,7 +1454,7 @@
         <v>1.47</v>
       </c>
       <c r="M15" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -1444,13 +1468,13 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
         <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
       </c>
       <c r="F16">
         <v>1.55</v>
@@ -1465,7 +1489,7 @@
         <v>0.16</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K16">
         <v>0.84</v>
@@ -1474,7 +1498,7 @@
         <v>1.55</v>
       </c>
       <c r="M16" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1488,13 +1512,13 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F17">
         <v>1.68</v>
@@ -1509,7 +1533,7 @@
         <v>0.17</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K17">
         <v>0.83</v>
@@ -1518,7 +1542,7 @@
         <v>1.68</v>
       </c>
       <c r="M17" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1532,13 +1556,13 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F18">
         <v>1.82</v>
@@ -1553,7 +1577,7 @@
         <v>0.25</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K18">
         <v>0.75</v>
@@ -1562,7 +1586,7 @@
         <v>1.82</v>
       </c>
       <c r="M18" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1576,13 +1600,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F19">
         <v>1.68</v>
@@ -1597,7 +1621,7 @@
         <v>0.16</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>0.84</v>
@@ -1606,7 +1630,7 @@
         <v>1.68</v>
       </c>
       <c r="M19" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -1620,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F20">
         <v>1.47</v>
@@ -1641,7 +1665,7 @@
         <v>0.05</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K20">
         <v>0.95</v>
@@ -1650,7 +1674,7 @@
         <v>1.47</v>
       </c>
       <c r="M20" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -1664,13 +1688,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F21">
         <v>1.44</v>
@@ -1685,7 +1709,7 @@
         <v>0.18</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K21">
         <v>0.82</v>
@@ -1694,7 +1718,7 @@
         <v>1.44</v>
       </c>
       <c r="M21" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -1708,13 +1732,13 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F22">
         <v>3.95</v>
@@ -1729,7 +1753,7 @@
         <v>0.74</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K22">
         <v>0.74</v>
@@ -1738,7 +1762,7 @@
         <v>1.9</v>
       </c>
       <c r="M22" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1752,13 +1776,13 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F23">
         <v>2.25</v>
@@ -1773,7 +1797,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K23">
         <v>0.8100000000000001</v>
@@ -1782,7 +1806,7 @@
         <v>3.2</v>
       </c>
       <c r="M23" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N23">
         <v>3</v>
@@ -1796,13 +1820,13 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F24">
         <v>2.7</v>
@@ -1817,7 +1841,7 @@
         <v>0.78</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K24">
         <v>0.78</v>
@@ -1826,7 +1850,7 @@
         <v>2.55</v>
       </c>
       <c r="M24" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1840,13 +1864,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F25">
         <v>4.9</v>
@@ -1861,7 +1885,7 @@
         <v>0.75</v>
       </c>
       <c r="J25" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K25">
         <v>0.75</v>
@@ -1870,7 +1894,7 @@
         <v>1.68</v>
       </c>
       <c r="M25" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1884,13 +1908,13 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F26">
         <v>1.88</v>
@@ -1905,7 +1929,7 @@
         <v>0.25</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K26">
         <v>0.75</v>
@@ -1914,7 +1938,7 @@
         <v>1.88</v>
       </c>
       <c r="M26" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1928,13 +1952,13 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F27">
         <v>2.72</v>
@@ -1949,7 +1973,7 @@
         <v>0.29</v>
       </c>
       <c r="J27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K27">
         <v>0.71</v>
@@ -1958,7 +1982,7 @@
         <v>2.72</v>
       </c>
       <c r="M27" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1972,10 +1996,10 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
         <v>105</v>
@@ -2002,7 +2026,7 @@
         <v>3.25</v>
       </c>
       <c r="M28" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2016,13 +2040,13 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F29">
         <v>1.5</v>
@@ -2037,7 +2061,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K29">
         <v>0.93</v>
@@ -2046,7 +2070,7 @@
         <v>1.5</v>
       </c>
       <c r="M29" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N29">
         <v>3</v>
@@ -2060,13 +2084,13 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F30">
         <v>1.85</v>
@@ -2081,7 +2105,7 @@
         <v>0.28</v>
       </c>
       <c r="J30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K30">
         <v>0.72</v>
@@ -2090,7 +2114,7 @@
         <v>1.85</v>
       </c>
       <c r="M30" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2104,13 +2128,13 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F31">
         <v>2.68</v>
@@ -2125,7 +2149,7 @@
         <v>0.27</v>
       </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K31">
         <v>0.73</v>
@@ -2134,7 +2158,7 @@
         <v>2.68</v>
       </c>
       <c r="M31" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2148,13 +2172,13 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F32">
         <v>2.35</v>
@@ -2169,7 +2193,7 @@
         <v>0.29</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K32">
         <v>0.71</v>
@@ -2178,7 +2202,7 @@
         <v>2.35</v>
       </c>
       <c r="M32" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2192,13 +2216,13 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F33">
         <v>1.98</v>
@@ -2213,7 +2237,7 @@
         <v>0.26</v>
       </c>
       <c r="J33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K33">
         <v>0.74</v>
@@ -2222,7 +2246,7 @@
         <v>1.98</v>
       </c>
       <c r="M33" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2236,13 +2260,13 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F34">
         <v>2.1</v>
@@ -2257,7 +2281,7 @@
         <v>0.29</v>
       </c>
       <c r="J34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K34">
         <v>0.71</v>
@@ -2266,7 +2290,7 @@
         <v>2.1</v>
       </c>
       <c r="M34" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2280,13 +2304,13 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F35">
         <v>3.6</v>
@@ -2301,7 +2325,7 @@
         <v>0.71</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K35">
         <v>0.71</v>
@@ -2310,7 +2334,7 @@
         <v>1.96</v>
       </c>
       <c r="M35" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2324,13 +2348,13 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F36">
         <v>1.72</v>
@@ -2345,7 +2369,7 @@
         <v>0.1</v>
       </c>
       <c r="J36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K36">
         <v>0.9</v>
@@ -2354,7 +2378,7 @@
         <v>1.72</v>
       </c>
       <c r="M36" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -2368,13 +2392,13 @@
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F37">
         <v>1.53</v>
@@ -2389,7 +2413,7 @@
         <v>0.13</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K37">
         <v>0.87</v>
@@ -2398,7 +2422,7 @@
         <v>1.53</v>
       </c>
       <c r="M37" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -2412,13 +2436,13 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F38">
         <v>2.05</v>
@@ -2433,7 +2457,7 @@
         <v>0.14</v>
       </c>
       <c r="J38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K38">
         <v>0.86</v>
@@ -2442,7 +2466,7 @@
         <v>2.05</v>
       </c>
       <c r="M38" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N38">
         <v>3</v>
@@ -2456,13 +2480,13 @@
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F39">
         <v>1.7</v>
@@ -2477,7 +2501,7 @@
         <v>0.14</v>
       </c>
       <c r="J39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K39">
         <v>0.86</v>
@@ -2486,7 +2510,7 @@
         <v>1.7</v>
       </c>
       <c r="M39" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N39">
         <v>3</v>
@@ -2500,13 +2524,13 @@
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F40">
         <v>1.42</v>
@@ -2521,7 +2545,7 @@
         <v>0.15</v>
       </c>
       <c r="J40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K40">
         <v>0.85</v>
@@ -2530,7 +2554,7 @@
         <v>1.42</v>
       </c>
       <c r="M40" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N40">
         <v>3</v>
@@ -2544,13 +2568,13 @@
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F41">
         <v>3.4</v>
@@ -2565,7 +2589,7 @@
         <v>0.75</v>
       </c>
       <c r="J41" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K41">
         <v>0.75</v>
@@ -2574,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="M41" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2588,13 +2612,13 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F42">
         <v>1.68</v>
@@ -2609,7 +2633,7 @@
         <v>0.21</v>
       </c>
       <c r="J42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K42">
         <v>0.79</v>
@@ -2618,7 +2642,7 @@
         <v>1.68</v>
       </c>
       <c r="M42" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2632,10 +2656,10 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
         <v>105</v>
@@ -2662,7 +2686,7 @@
         <v>2.95</v>
       </c>
       <c r="M43" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2676,13 +2700,13 @@
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F44">
         <v>1.53</v>
@@ -2697,7 +2721,7 @@
         <v>0.11</v>
       </c>
       <c r="J44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K44">
         <v>0.89</v>
@@ -2706,7 +2730,7 @@
         <v>1.53</v>
       </c>
       <c r="M44" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N44">
         <v>3</v>
@@ -2720,13 +2744,13 @@
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F45">
         <v>2.92</v>
@@ -2741,7 +2765,7 @@
         <v>0.29</v>
       </c>
       <c r="J45" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K45">
         <v>0.71</v>
@@ -2750,7 +2774,7 @@
         <v>2.92</v>
       </c>
       <c r="M45" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2764,13 +2788,13 @@
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F46">
         <v>3.05</v>
@@ -2785,7 +2809,7 @@
         <v>0.75</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>0.75</v>
@@ -2794,7 +2818,7 @@
         <v>2.28</v>
       </c>
       <c r="M46" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2808,13 +2832,13 @@
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F47">
         <v>1.78</v>
@@ -2829,7 +2853,7 @@
         <v>0.17</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K47">
         <v>0.83</v>
@@ -2838,7 +2862,7 @@
         <v>1.78</v>
       </c>
       <c r="M47" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N47">
         <v>3</v>
@@ -2852,13 +2876,13 @@
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F48">
         <v>1.92</v>
@@ -2873,7 +2897,7 @@
         <v>0.17</v>
       </c>
       <c r="J48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K48">
         <v>0.83</v>
@@ -2882,7 +2906,7 @@
         <v>1.92</v>
       </c>
       <c r="M48" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N48">
         <v>3</v>
@@ -2896,13 +2920,13 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F49">
         <v>1.96</v>
@@ -2917,7 +2941,7 @@
         <v>0.16</v>
       </c>
       <c r="J49" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K49">
         <v>0.84</v>
@@ -2926,7 +2950,7 @@
         <v>1.96</v>
       </c>
       <c r="M49" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N49">
         <v>3</v>
@@ -2940,13 +2964,13 @@
         <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F50">
         <v>1.33</v>
@@ -2961,7 +2985,7 @@
         <v>0.82</v>
       </c>
       <c r="J50" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K50">
         <v>0.82</v>
@@ -2970,7 +2994,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M50" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N50">
         <v>3</v>
@@ -2984,13 +3008,13 @@
         <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F51">
         <v>1.65</v>
@@ -3005,7 +3029,7 @@
         <v>0.16</v>
       </c>
       <c r="J51" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K51">
         <v>0.84</v>
@@ -3014,7 +3038,7 @@
         <v>1.65</v>
       </c>
       <c r="M51" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N51">
         <v>3</v>
@@ -3028,13 +3052,13 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F52">
         <v>2.5</v>
@@ -3049,7 +3073,7 @@
         <v>0.82</v>
       </c>
       <c r="J52" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K52">
         <v>0.82</v>
@@ -3058,7 +3082,7 @@
         <v>3.3</v>
       </c>
       <c r="M52" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N52">
         <v>3</v>
@@ -3072,13 +3096,13 @@
         <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F53">
         <v>3.05</v>
@@ -3093,7 +3117,7 @@
         <v>0.82</v>
       </c>
       <c r="J53" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K53">
         <v>0.82</v>
@@ -3102,7 +3126,7 @@
         <v>2.48</v>
       </c>
       <c r="M53" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N53">
         <v>3</v>
@@ -3116,13 +3140,13 @@
         <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F54">
         <v>1.63</v>
@@ -3137,7 +3161,7 @@
         <v>0.24</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K54">
         <v>0.76</v>
@@ -3146,7 +3170,7 @@
         <v>1.63</v>
       </c>
       <c r="M54" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3160,13 +3184,13 @@
         <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F55">
         <v>1.55</v>
@@ -3181,7 +3205,7 @@
         <v>0.17</v>
       </c>
       <c r="J55" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K55">
         <v>0.83</v>
@@ -3190,7 +3214,7 @@
         <v>1.55</v>
       </c>
       <c r="M55" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N55">
         <v>3</v>
@@ -3204,13 +3228,13 @@
         <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F56">
         <v>1.88</v>
@@ -3225,7 +3249,7 @@
         <v>0.82</v>
       </c>
       <c r="J56" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K56">
         <v>0.82</v>
@@ -3234,7 +3258,7 @@
         <v>4.25</v>
       </c>
       <c r="M56" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N56">
         <v>3</v>
@@ -3248,13 +3272,13 @@
         <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F57">
         <v>1.8</v>
@@ -3269,7 +3293,7 @@
         <v>0.22</v>
       </c>
       <c r="J57" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K57">
         <v>0.78</v>
@@ -3278,7 +3302,7 @@
         <v>1.8</v>
       </c>
       <c r="M57" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3292,13 +3316,13 @@
         <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F58">
         <v>1.41</v>
@@ -3313,7 +3337,7 @@
         <v>0.78</v>
       </c>
       <c r="J58" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K58">
         <v>0.78</v>
@@ -3322,7 +3346,7 @@
         <v>7.8</v>
       </c>
       <c r="M58" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N58">
         <v>2</v>
@@ -3336,13 +3360,13 @@
         <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F59">
         <v>1.8</v>
@@ -3357,7 +3381,7 @@
         <v>0.21</v>
       </c>
       <c r="J59" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K59">
         <v>0.79</v>
@@ -3366,7 +3390,7 @@
         <v>1.8</v>
       </c>
       <c r="M59" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3380,13 +3404,13 @@
         <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F60">
         <v>1.57</v>
@@ -3401,7 +3425,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J60" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K60">
         <v>0.93</v>
@@ -3410,7 +3434,7 @@
         <v>1.57</v>
       </c>
       <c r="M60" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N60">
         <v>3</v>
@@ -3424,13 +3448,13 @@
         <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F61">
         <v>2.2</v>
@@ -3445,7 +3469,7 @@
         <v>0.8</v>
       </c>
       <c r="J61" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K61">
         <v>0.8</v>
@@ -3454,7 +3478,7 @@
         <v>3.75</v>
       </c>
       <c r="M61" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N61">
         <v>3</v>
@@ -3468,13 +3492,13 @@
         <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F62">
         <v>1.3</v>
@@ -3489,7 +3513,7 @@
         <v>0.82</v>
       </c>
       <c r="J62" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K62">
         <v>0.82</v>
@@ -3498,7 +3522,7 @@
         <v>11</v>
       </c>
       <c r="M62" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N62">
         <v>3</v>
@@ -3512,13 +3536,13 @@
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F63">
         <v>1.8</v>
@@ -3533,7 +3557,7 @@
         <v>0.15</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>0.85</v>
@@ -3542,7 +3566,7 @@
         <v>1.8</v>
       </c>
       <c r="M63" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N63">
         <v>3</v>
@@ -3556,13 +3580,13 @@
         <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F64">
         <v>1.42</v>
@@ -3577,7 +3601,7 @@
         <v>0.18</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>0.82</v>
@@ -3586,7 +3610,7 @@
         <v>1.42</v>
       </c>
       <c r="M64" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N64">
         <v>3</v>
@@ -3600,13 +3624,13 @@
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F65">
         <v>2.4</v>
@@ -3621,7 +3645,7 @@
         <v>0.28</v>
       </c>
       <c r="J65" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K65">
         <v>0.72</v>
@@ -3630,7 +3654,7 @@
         <v>2.4</v>
       </c>
       <c r="M65" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3644,13 +3668,13 @@
         <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F66">
         <v>2.05</v>
@@ -3665,7 +3689,7 @@
         <v>0.27</v>
       </c>
       <c r="J66" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K66">
         <v>0.73</v>
@@ -3674,7 +3698,7 @@
         <v>2.05</v>
       </c>
       <c r="M66" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3688,13 +3712,13 @@
         <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E67" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F67">
         <v>1.42</v>
@@ -3709,7 +3733,7 @@
         <v>0.08</v>
       </c>
       <c r="J67" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K67">
         <v>0.92</v>
@@ -3718,7 +3742,7 @@
         <v>1.42</v>
       </c>
       <c r="M67" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N67">
         <v>3</v>
@@ -3732,13 +3756,13 @@
         <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F68">
         <v>1.68</v>
@@ -3753,7 +3777,7 @@
         <v>0.17</v>
       </c>
       <c r="J68" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K68">
         <v>0.83</v>
@@ -3762,7 +3786,7 @@
         <v>1.68</v>
       </c>
       <c r="M68" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N68">
         <v>3</v>
@@ -3776,13 +3800,13 @@
         <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -3797,7 +3821,7 @@
         <v>0.24</v>
       </c>
       <c r="J69" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K69">
         <v>0.76</v>
@@ -3806,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="M69" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -3820,13 +3844,13 @@
         <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F70">
         <v>1.8</v>
@@ -3841,7 +3865,7 @@
         <v>0.23</v>
       </c>
       <c r="J70" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K70">
         <v>0.77</v>
@@ -3850,7 +3874,7 @@
         <v>1.8</v>
       </c>
       <c r="M70" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N70">
         <v>2</v>
@@ -3864,13 +3888,13 @@
         <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E71" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F71">
         <v>2.38</v>
@@ -3885,7 +3909,7 @@
         <v>0.3</v>
       </c>
       <c r="J71" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K71">
         <v>0.7</v>
@@ -3894,9 +3918,273 @@
         <v>2.38</v>
       </c>
       <c r="M71" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72">
+        <v>1.65</v>
+      </c>
+      <c r="G72">
+        <v>5.15</v>
+      </c>
+      <c r="H72">
+        <v>0.82</v>
+      </c>
+      <c r="I72">
+        <v>0.18</v>
+      </c>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+      <c r="K72">
+        <v>0.82</v>
+      </c>
+      <c r="L72">
+        <v>1.65</v>
+      </c>
+      <c r="M72" t="s">
+        <v>139</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1">
+        <v>56</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73">
+        <v>1.6</v>
+      </c>
+      <c r="G73">
+        <v>5.5</v>
+      </c>
+      <c r="H73">
+        <v>0.82</v>
+      </c>
+      <c r="I73">
+        <v>0.18</v>
+      </c>
+      <c r="J73" t="s">
+        <v>95</v>
+      </c>
+      <c r="K73">
+        <v>0.82</v>
+      </c>
+      <c r="L73">
+        <v>1.6</v>
+      </c>
+      <c r="M73" t="s">
+        <v>139</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" t="s">
+        <v>137</v>
+      </c>
+      <c r="F74">
+        <v>1.82</v>
+      </c>
+      <c r="G74">
+        <v>4.2</v>
+      </c>
+      <c r="H74">
+        <v>0.79</v>
+      </c>
+      <c r="I74">
+        <v>0.21</v>
+      </c>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+      <c r="K74">
+        <v>0.79</v>
+      </c>
+      <c r="L74">
+        <v>1.82</v>
+      </c>
+      <c r="M74" t="s">
+        <v>140</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1">
+        <v>46</v>
+      </c>
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75">
+        <v>1.95</v>
+      </c>
+      <c r="G75">
+        <v>3.7</v>
+      </c>
+      <c r="H75">
+        <v>0.75</v>
+      </c>
+      <c r="I75">
+        <v>0.25</v>
+      </c>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+      <c r="K75">
+        <v>0.75</v>
+      </c>
+      <c r="L75">
+        <v>1.95</v>
+      </c>
+      <c r="M75" t="s">
+        <v>140</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76">
+        <v>1.95</v>
+      </c>
+      <c r="G76">
+        <v>3.7</v>
+      </c>
+      <c r="H76">
+        <v>0.7</v>
+      </c>
+      <c r="I76">
+        <v>0.3</v>
+      </c>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+      <c r="K76">
+        <v>0.7</v>
+      </c>
+      <c r="L76">
+        <v>1.95</v>
+      </c>
+      <c r="M76" t="s">
+        <v>141</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1">
+        <v>51</v>
+      </c>
+      <c r="B77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77">
+        <v>1.98</v>
+      </c>
+      <c r="G77">
+        <v>3.95</v>
+      </c>
+      <c r="H77">
+        <v>0.72</v>
+      </c>
+      <c r="I77">
+        <v>0.28</v>
+      </c>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+      <c r="K77">
+        <v>0.72</v>
+      </c>
+      <c r="L77">
+        <v>1.98</v>
+      </c>
+      <c r="M77" t="s">
+        <v>141</v>
+      </c>
+      <c r="N77">
         <v>1</v>
       </c>
     </row>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan.hassan\Desktop\github\soccerprediction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F248DD3-A23B-4D39-9379-491040B3B543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -59,13 +53,112 @@
   </si>
   <si>
     <t>bet_type_order</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>2023-09-17</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGUE 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGA PORTUGAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERIE A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMIER LEAGUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LALIGA </t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Clermont Foot</t>
+  </si>
+  <si>
+    <t>Vitoria Guimaraes</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>America MG</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
+    <t>safest_bet</t>
+  </si>
+  <si>
+    <t>safe_bet</t>
+  </si>
+  <si>
+    <t>risky_bet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,21 +221,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +265,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -214,7 +299,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,10 +333,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,31 +508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.08984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,6 +554,446 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>1.52</v>
+      </c>
+      <c r="G2">
+        <v>5.9</v>
+      </c>
+      <c r="H2">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.06</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L2">
+        <v>1.52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>1.98</v>
+      </c>
+      <c r="G3">
+        <v>3.7</v>
+      </c>
+      <c r="H3">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L3">
+        <v>1.98</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>1.53</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>0.85</v>
+      </c>
+      <c r="I4">
+        <v>0.15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>0.85</v>
+      </c>
+      <c r="L4">
+        <v>1.53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>2.55</v>
+      </c>
+      <c r="G5">
+        <v>2.8</v>
+      </c>
+      <c r="H5">
+        <v>0.86</v>
+      </c>
+      <c r="I5">
+        <v>0.14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>0.86</v>
+      </c>
+      <c r="L5">
+        <v>2.55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>1.68</v>
+      </c>
+      <c r="G6">
+        <v>4.65</v>
+      </c>
+      <c r="H6">
+        <v>0.77</v>
+      </c>
+      <c r="I6">
+        <v>0.23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>0.77</v>
+      </c>
+      <c r="L6">
+        <v>1.68</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>2.55</v>
+      </c>
+      <c r="G7">
+        <v>2.9</v>
+      </c>
+      <c r="H7">
+        <v>0.71</v>
+      </c>
+      <c r="I7">
+        <v>0.29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>0.71</v>
+      </c>
+      <c r="L7">
+        <v>2.55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>1.92</v>
+      </c>
+      <c r="G8">
+        <v>4.05</v>
+      </c>
+      <c r="H8">
+        <v>0.72</v>
+      </c>
+      <c r="I8">
+        <v>0.28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8">
+        <v>0.72</v>
+      </c>
+      <c r="L8">
+        <v>1.92</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>3.6</v>
+      </c>
+      <c r="G9">
+        <v>2.1</v>
+      </c>
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+      <c r="I9">
+        <v>0.7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>0.7</v>
+      </c>
+      <c r="L9">
+        <v>2.1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>2.08</v>
+      </c>
+      <c r="G10">
+        <v>3.55</v>
+      </c>
+      <c r="H10">
+        <v>0.71</v>
+      </c>
+      <c r="I10">
+        <v>0.29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>0.71</v>
+      </c>
+      <c r="L10">
+        <v>2.08</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>2.8</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
+      <c r="H11">
+        <v>0.73</v>
+      </c>
+      <c r="I11">
+        <v>0.27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>0.73</v>
+      </c>
+      <c r="L11">
+        <v>2.8</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,9 @@
     <t>2023-09-19</t>
   </si>
   <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIGUE 1 </t>
   </si>
   <si>
@@ -85,6 +88,12 @@
     <t xml:space="preserve">LALIGA </t>
   </si>
   <si>
+    <t xml:space="preserve">BUNDESLIGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EREDIVISIE </t>
+  </si>
+  <si>
     <t>Lens</t>
   </si>
   <si>
@@ -115,6 +124,30 @@
     <t>America MG</t>
   </si>
   <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Estrela</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Sporting CP</t>
+  </si>
+  <si>
     <t>Metz</t>
   </si>
   <si>
@@ -143,6 +176,30 @@
   </si>
   <si>
     <t>Bragantino</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -509,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,19 +615,19 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>1.52</v>
@@ -585,7 +642,7 @@
         <v>0.06</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K2">
         <v>0.9399999999999999</v>
@@ -594,7 +651,7 @@
         <v>1.52</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -602,19 +659,19 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>1.98</v>
@@ -629,7 +686,7 @@
         <v>0.19</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>0.8100000000000001</v>
@@ -638,7 +695,7 @@
         <v>1.98</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -646,19 +703,19 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>1.53</v>
@@ -673,7 +730,7 @@
         <v>0.15</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.85</v>
@@ -682,7 +739,7 @@
         <v>1.53</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -690,19 +747,19 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>2.55</v>
@@ -717,7 +774,7 @@
         <v>0.14</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K5">
         <v>0.86</v>
@@ -726,7 +783,7 @@
         <v>2.55</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -734,19 +791,19 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>1.68</v>
@@ -761,7 +818,7 @@
         <v>0.23</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <v>0.77</v>
@@ -770,7 +827,7 @@
         <v>1.68</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -778,19 +835,19 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>2.55</v>
@@ -805,7 +862,7 @@
         <v>0.29</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K7">
         <v>0.71</v>
@@ -814,7 +871,7 @@
         <v>2.55</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -822,19 +879,19 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>1.92</v>
@@ -849,7 +906,7 @@
         <v>0.28</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K8">
         <v>0.72</v>
@@ -858,7 +915,7 @@
         <v>1.92</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -866,19 +923,19 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>3.6</v>
@@ -893,7 +950,7 @@
         <v>0.7</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="K9">
         <v>0.7</v>
@@ -902,7 +959,7 @@
         <v>2.1</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -910,19 +967,19 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>2.08</v>
@@ -937,7 +994,7 @@
         <v>0.29</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>0.71</v>
@@ -946,7 +1003,7 @@
         <v>2.08</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -954,19 +1011,19 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>2.8</v>
@@ -981,7 +1038,7 @@
         <v>0.27</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K11">
         <v>0.73</v>
@@ -990,10 +1047,362 @@
         <v>2.8</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>1.35</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>0.84</v>
+      </c>
+      <c r="I12">
+        <v>0.16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12">
+        <v>0.84</v>
+      </c>
+      <c r="L12">
+        <v>1.35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>1.36</v>
+      </c>
+      <c r="H13">
+        <v>0.3</v>
+      </c>
+      <c r="I13">
+        <v>0.7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13">
+        <v>0.7</v>
+      </c>
+      <c r="L13">
+        <v>1.36</v>
+      </c>
+      <c r="M13" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>6.7</v>
+      </c>
+      <c r="G14">
+        <v>1.48</v>
+      </c>
+      <c r="H14">
+        <v>0.32</v>
+      </c>
+      <c r="I14">
+        <v>0.68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14">
+        <v>0.68</v>
+      </c>
+      <c r="L14">
+        <v>1.48</v>
+      </c>
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15">
+        <v>1.24</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>0.9</v>
+      </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>0.9</v>
+      </c>
+      <c r="L15">
+        <v>1.24</v>
+      </c>
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16">
+        <v>1.24</v>
+      </c>
+      <c r="G16">
+        <v>11.5</v>
+      </c>
+      <c r="H16">
+        <v>0.84</v>
+      </c>
+      <c r="I16">
+        <v>0.16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16">
+        <v>0.84</v>
+      </c>
+      <c r="L16">
+        <v>1.24</v>
+      </c>
+      <c r="M16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>1.33</v>
+      </c>
+      <c r="H17">
+        <v>0.31</v>
+      </c>
+      <c r="I17">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L17">
+        <v>1.33</v>
+      </c>
+      <c r="M17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>6.3</v>
+      </c>
+      <c r="G18">
+        <v>1.52</v>
+      </c>
+      <c r="H18">
+        <v>0.29</v>
+      </c>
+      <c r="I18">
+        <v>0.71</v>
+      </c>
+      <c r="J18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18">
+        <v>0.71</v>
+      </c>
+      <c r="L18">
+        <v>1.52</v>
+      </c>
+      <c r="M18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <v>1.22</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>0.87</v>
+      </c>
+      <c r="I19">
+        <v>0.13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>0.87</v>
+      </c>
+      <c r="L19">
+        <v>1.22</v>
+      </c>
+      <c r="M19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan.hassan\Desktop\github\soccerprediction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5AED8B-6A07-40FC-8B22-7AE6C36ECAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -59,13 +53,103 @@
   </si>
   <si>
     <t>bet_type_order</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>2023-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERIE A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGA PORTUGAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMIER LEAGUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGUE 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUNDESLIGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EREDIVISIE </t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Estrela</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Vitoria Guimaraes</t>
+  </si>
+  <si>
+    <t>Sporting CP</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>safest_bet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,21 +212,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +256,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -214,7 +290,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,10 +324,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,14 +499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,6 +545,446 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>1.35</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>0.84</v>
+      </c>
+      <c r="I2">
+        <v>0.16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>0.84</v>
+      </c>
+      <c r="L2">
+        <v>1.35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>1.36</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="I3">
+        <v>0.7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3">
+        <v>0.7</v>
+      </c>
+      <c r="L3">
+        <v>1.36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>6.7</v>
+      </c>
+      <c r="G4">
+        <v>1.48</v>
+      </c>
+      <c r="H4">
+        <v>0.32</v>
+      </c>
+      <c r="I4">
+        <v>0.68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>0.68</v>
+      </c>
+      <c r="L4">
+        <v>1.48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>1.52</v>
+      </c>
+      <c r="G5">
+        <v>5.9</v>
+      </c>
+      <c r="H5">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.06</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L5">
+        <v>1.52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>1.24</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>0.9</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>0.9</v>
+      </c>
+      <c r="L6">
+        <v>1.24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>1.24</v>
+      </c>
+      <c r="G7">
+        <v>11.5</v>
+      </c>
+      <c r="H7">
+        <v>0.84</v>
+      </c>
+      <c r="I7">
+        <v>0.16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>0.84</v>
+      </c>
+      <c r="L7">
+        <v>1.24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>1.33</v>
+      </c>
+      <c r="H8">
+        <v>0.31</v>
+      </c>
+      <c r="I8">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L8">
+        <v>1.33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>6.3</v>
+      </c>
+      <c r="G9">
+        <v>1.52</v>
+      </c>
+      <c r="H9">
+        <v>0.29</v>
+      </c>
+      <c r="I9">
+        <v>0.71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9">
+        <v>0.71</v>
+      </c>
+      <c r="L9">
+        <v>1.52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>1.53</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>0.85</v>
+      </c>
+      <c r="I10">
+        <v>0.15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>0.85</v>
+      </c>
+      <c r="L10">
+        <v>1.53</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11">
+        <v>1.22</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>0.87</v>
+      </c>
+      <c r="I11">
+        <v>0.13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>0.87</v>
+      </c>
+      <c r="L11">
+        <v>1.22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,18 @@
     <t>2023-09-17</t>
   </si>
   <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>2023-09-23</t>
+  </si>
+  <si>
+    <t>2023-09-24</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERIE A </t>
   </si>
   <si>
@@ -82,6 +94,12 @@
     <t xml:space="preserve">EREDIVISIE </t>
   </si>
   <si>
+    <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LALIGA </t>
+  </si>
+  <si>
     <t>Palmeiras</t>
   </si>
   <si>
@@ -112,12 +130,63 @@
     <t>Sporting CP</t>
   </si>
   <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Braga</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Almere City</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Atletico Mineiro</t>
+  </si>
+  <si>
     <t>Goias</t>
   </si>
   <si>
-    <t>Porto</t>
-  </si>
-  <si>
     <t>Manchester City</t>
   </si>
   <si>
@@ -136,10 +205,61 @@
     <t>Arsenal</t>
   </si>
   <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
     <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>RWD Molenbeek</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Eupen</t>
+  </si>
+  <si>
+    <t>Sint Truiden</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Gil Vicente FC</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Rio Ave</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -500,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,19 +669,19 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>1.35</v>
@@ -576,7 +696,7 @@
         <v>0.16</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K2">
         <v>0.84</v>
@@ -585,7 +705,7 @@
         <v>1.35</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -593,19 +713,19 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -620,7 +740,7 @@
         <v>0.7</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>0.7</v>
@@ -629,7 +749,7 @@
         <v>1.36</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -637,19 +757,19 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>6.7</v>
@@ -664,7 +784,7 @@
         <v>0.68</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="K4">
         <v>0.68</v>
@@ -673,7 +793,7 @@
         <v>1.48</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -681,19 +801,19 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>1.52</v>
@@ -708,7 +828,7 @@
         <v>0.06</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K5">
         <v>0.9399999999999999</v>
@@ -717,7 +837,7 @@
         <v>1.52</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -725,19 +845,19 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>1.24</v>
@@ -752,7 +872,7 @@
         <v>0.1</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K6">
         <v>0.9</v>
@@ -761,7 +881,7 @@
         <v>1.24</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -769,19 +889,19 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>1.24</v>
@@ -796,7 +916,7 @@
         <v>0.16</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K7">
         <v>0.84</v>
@@ -805,7 +925,7 @@
         <v>1.24</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -813,19 +933,19 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -840,7 +960,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="K8">
         <v>0.6899999999999999</v>
@@ -849,7 +969,7 @@
         <v>1.33</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -857,19 +977,19 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>6.3</v>
@@ -884,7 +1004,7 @@
         <v>0.71</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="K9">
         <v>0.71</v>
@@ -893,7 +1013,7 @@
         <v>1.52</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -901,19 +1021,19 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>1.53</v>
@@ -928,7 +1048,7 @@
         <v>0.15</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K10">
         <v>0.85</v>
@@ -937,7 +1057,7 @@
         <v>1.53</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -945,19 +1065,19 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>1.22</v>
@@ -972,7 +1092,7 @@
         <v>0.13</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K11">
         <v>0.87</v>
@@ -981,9 +1101,889 @@
         <v>1.22</v>
       </c>
       <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12">
+        <v>1.78</v>
+      </c>
+      <c r="G12">
+        <v>4.5</v>
+      </c>
+      <c r="H12">
+        <v>0.88</v>
+      </c>
+      <c r="I12">
+        <v>0.12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>0.88</v>
+      </c>
+      <c r="L12">
+        <v>1.78</v>
+      </c>
+      <c r="M12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <v>1.35</v>
+      </c>
+      <c r="G13">
+        <v>8.5</v>
+      </c>
+      <c r="H13">
+        <v>0.88</v>
+      </c>
+      <c r="I13">
+        <v>0.12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13">
+        <v>0.88</v>
+      </c>
+      <c r="L13">
+        <v>1.35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14">
+        <v>1.58</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>0.88</v>
+      </c>
+      <c r="I14">
+        <v>0.12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <v>0.88</v>
+      </c>
+      <c r="L14">
+        <v>1.58</v>
+      </c>
+      <c r="M14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15">
+        <v>1.5</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L15">
+        <v>1.5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="N11">
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>1.25</v>
+      </c>
+      <c r="H16">
+        <v>0.26</v>
+      </c>
+      <c r="I16">
+        <v>0.74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16">
+        <v>0.74</v>
+      </c>
+      <c r="L16">
+        <v>1.25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>5.4</v>
+      </c>
+      <c r="G17">
+        <v>1.52</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>0.8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17">
+        <v>0.8</v>
+      </c>
+      <c r="L17">
+        <v>1.52</v>
+      </c>
+      <c r="M17" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18">
+        <v>1.33</v>
+      </c>
+      <c r="G18">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.93</v>
+      </c>
+      <c r="I18">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18">
+        <v>0.93</v>
+      </c>
+      <c r="L18">
+        <v>1.33</v>
+      </c>
+      <c r="M18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G19">
+        <v>1.34</v>
+      </c>
+      <c r="H19">
+        <v>0.35</v>
+      </c>
+      <c r="I19">
+        <v>0.65</v>
+      </c>
+      <c r="J19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19">
+        <v>0.65</v>
+      </c>
+      <c r="L19">
+        <v>1.34</v>
+      </c>
+      <c r="M19" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20">
+        <v>1.65</v>
+      </c>
+      <c r="G20">
+        <v>4.65</v>
+      </c>
+      <c r="H20">
+        <v>0.85</v>
+      </c>
+      <c r="I20">
+        <v>0.15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20">
+        <v>0.85</v>
+      </c>
+      <c r="L20">
+        <v>1.65</v>
+      </c>
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>1.43</v>
+      </c>
+      <c r="G21">
+        <v>7.1</v>
+      </c>
+      <c r="H21">
+        <v>0.82</v>
+      </c>
+      <c r="I21">
+        <v>0.18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>0.82</v>
+      </c>
+      <c r="L21">
+        <v>1.43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22">
+        <v>1.36</v>
+      </c>
+      <c r="G22">
+        <v>8.1</v>
+      </c>
+      <c r="H22">
+        <v>0.83</v>
+      </c>
+      <c r="I22">
+        <v>0.17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>0.83</v>
+      </c>
+      <c r="L22">
+        <v>1.36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23">
+        <v>1.28</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0.86</v>
+      </c>
+      <c r="I23">
+        <v>0.14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23">
+        <v>0.86</v>
+      </c>
+      <c r="L23">
+        <v>1.28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24">
+        <v>1.63</v>
+      </c>
+      <c r="G24">
+        <v>4.75</v>
+      </c>
+      <c r="H24">
+        <v>0.8</v>
+      </c>
+      <c r="I24">
+        <v>0.2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24">
+        <v>0.8</v>
+      </c>
+      <c r="L24">
+        <v>1.63</v>
+      </c>
+      <c r="M24" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25">
+        <v>1.35</v>
+      </c>
+      <c r="G25">
+        <v>8.5</v>
+      </c>
+      <c r="H25">
+        <v>0.9</v>
+      </c>
+      <c r="I25">
+        <v>0.1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25">
+        <v>0.9</v>
+      </c>
+      <c r="L25">
+        <v>1.35</v>
+      </c>
+      <c r="M25" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26">
+        <v>1.25</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>0.95</v>
+      </c>
+      <c r="I26">
+        <v>0.05</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26">
+        <v>0.95</v>
+      </c>
+      <c r="L26">
+        <v>1.25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>82</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>1.23</v>
+      </c>
+      <c r="H27">
+        <v>0.24</v>
+      </c>
+      <c r="I27">
+        <v>0.76</v>
+      </c>
+      <c r="J27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27">
+        <v>0.76</v>
+      </c>
+      <c r="L27">
+        <v>1.23</v>
+      </c>
+      <c r="M27" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28">
+        <v>1.85</v>
+      </c>
+      <c r="G28">
+        <v>4.1</v>
+      </c>
+      <c r="H28">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L28">
+        <v>1.85</v>
+      </c>
+      <c r="M28" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29">
+        <v>1.37</v>
+      </c>
+      <c r="G29">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.93</v>
+      </c>
+      <c r="I29">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29">
+        <v>0.93</v>
+      </c>
+      <c r="L29">
+        <v>1.37</v>
+      </c>
+      <c r="M29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <v>1.57</v>
+      </c>
+      <c r="G30">
+        <v>6.5</v>
+      </c>
+      <c r="H30">
+        <v>0.83</v>
+      </c>
+      <c r="I30">
+        <v>0.17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30">
+        <v>0.83</v>
+      </c>
+      <c r="L30">
+        <v>1.57</v>
+      </c>
+      <c r="M30" t="s">
+        <v>82</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31">
+        <v>1.2</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>0.9</v>
+      </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31">
+        <v>0.9</v>
+      </c>
+      <c r="L31">
+        <v>1.2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>82</v>
+      </c>
+      <c r="N31">
         <v>3</v>
       </c>
     </row>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="120">
   <si>
     <t>Date</t>
   </si>
@@ -76,6 +76,24 @@
     <t>2023-09-25</t>
   </si>
   <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERIE A </t>
   </si>
   <si>
@@ -184,6 +202,63 @@
     <t>Atletico Mineiro</t>
   </si>
   <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>RWD Molenbeek</t>
+  </si>
+  <si>
+    <t>Union SG</t>
+  </si>
+  <si>
+    <t>Farense</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
     <t>Goias</t>
   </si>
   <si>
@@ -211,30 +286,18 @@
     <t>Cruzeiro</t>
   </si>
   <si>
-    <t>RWD Molenbeek</t>
-  </si>
-  <si>
     <t>Getafe</t>
   </si>
   <si>
     <t>Boavista</t>
   </si>
   <si>
-    <t>Twente</t>
-  </si>
-  <si>
     <t>Cagliari</t>
   </si>
   <si>
-    <t>Internazionale</t>
-  </si>
-  <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
     <t>Eupen</t>
   </si>
   <si>
@@ -260,6 +323,54 @@
   </si>
   <si>
     <t>Rio Ave</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Fortuna Sittard</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Charleroi</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Heracles Almelo</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -620,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,13 +786,13 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <v>1.35</v>
@@ -696,7 +807,7 @@
         <v>0.16</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K2">
         <v>0.84</v>
@@ -705,7 +816,7 @@
         <v>1.35</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -719,13 +830,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -740,7 +851,7 @@
         <v>0.7</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>0.7</v>
@@ -749,7 +860,7 @@
         <v>1.36</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -763,13 +874,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>6.7</v>
@@ -784,7 +895,7 @@
         <v>0.68</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="K4">
         <v>0.68</v>
@@ -793,7 +904,7 @@
         <v>1.48</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -807,13 +918,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <v>1.52</v>
@@ -828,7 +939,7 @@
         <v>0.06</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>0.9399999999999999</v>
@@ -837,7 +948,7 @@
         <v>1.52</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -851,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F6">
         <v>1.24</v>
@@ -872,7 +983,7 @@
         <v>0.1</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>0.9</v>
@@ -881,7 +992,7 @@
         <v>1.24</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -895,13 +1006,13 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F7">
         <v>1.24</v>
@@ -916,7 +1027,7 @@
         <v>0.16</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>0.84</v>
@@ -925,7 +1036,7 @@
         <v>1.24</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -939,13 +1050,13 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -960,7 +1071,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="K8">
         <v>0.6899999999999999</v>
@@ -969,7 +1080,7 @@
         <v>1.33</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -983,13 +1094,13 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F9">
         <v>6.3</v>
@@ -1004,7 +1115,7 @@
         <v>0.71</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="K9">
         <v>0.71</v>
@@ -1013,7 +1124,7 @@
         <v>1.52</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -1027,13 +1138,13 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>1.53</v>
@@ -1048,7 +1159,7 @@
         <v>0.15</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>0.85</v>
@@ -1057,7 +1168,7 @@
         <v>1.53</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -1071,13 +1182,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F11">
         <v>1.22</v>
@@ -1092,7 +1203,7 @@
         <v>0.13</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>0.87</v>
@@ -1101,7 +1212,7 @@
         <v>1.22</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1109,19 +1220,19 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F12">
         <v>1.78</v>
@@ -1136,7 +1247,7 @@
         <v>0.12</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>0.88</v>
@@ -1145,7 +1256,7 @@
         <v>1.78</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1153,19 +1264,19 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <v>1.35</v>
@@ -1180,7 +1291,7 @@
         <v>0.12</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>0.88</v>
@@ -1189,7 +1300,7 @@
         <v>1.35</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1197,19 +1308,19 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F14">
         <v>1.58</v>
@@ -1224,7 +1335,7 @@
         <v>0.12</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>0.88</v>
@@ -1233,7 +1344,7 @@
         <v>1.58</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1241,19 +1352,19 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F15">
         <v>1.5</v>
@@ -1268,7 +1379,7 @@
         <v>0.19</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>0.8100000000000001</v>
@@ -1277,7 +1388,7 @@
         <v>1.5</v>
       </c>
       <c r="M15" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -1285,19 +1396,19 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F16">
         <v>11</v>
@@ -1312,7 +1423,7 @@
         <v>0.74</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="K16">
         <v>0.74</v>
@@ -1321,7 +1432,7 @@
         <v>1.25</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1329,19 +1440,19 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F17">
         <v>5.4</v>
@@ -1356,7 +1467,7 @@
         <v>0.8</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K17">
         <v>0.8</v>
@@ -1365,7 +1476,7 @@
         <v>1.52</v>
       </c>
       <c r="M17" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1373,19 +1484,19 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F18">
         <v>1.33</v>
@@ -1400,7 +1511,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K18">
         <v>0.93</v>
@@ -1409,7 +1520,7 @@
         <v>1.33</v>
       </c>
       <c r="M18" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -1417,19 +1528,19 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>8.300000000000001</v>
@@ -1444,7 +1555,7 @@
         <v>0.65</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K19">
         <v>0.65</v>
@@ -1453,7 +1564,7 @@
         <v>1.34</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -1461,19 +1572,19 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F20">
         <v>1.65</v>
@@ -1488,7 +1599,7 @@
         <v>0.15</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K20">
         <v>0.85</v>
@@ -1497,7 +1608,7 @@
         <v>1.65</v>
       </c>
       <c r="M20" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -1505,19 +1616,19 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F21">
         <v>1.43</v>
@@ -1532,7 +1643,7 @@
         <v>0.18</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K21">
         <v>0.82</v>
@@ -1541,7 +1652,7 @@
         <v>1.43</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -1549,19 +1660,19 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F22">
         <v>1.36</v>
@@ -1576,7 +1687,7 @@
         <v>0.17</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K22">
         <v>0.83</v>
@@ -1585,7 +1696,7 @@
         <v>1.36</v>
       </c>
       <c r="M22" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N22">
         <v>3</v>
@@ -1593,19 +1704,19 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F23">
         <v>1.28</v>
@@ -1620,7 +1731,7 @@
         <v>0.14</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K23">
         <v>0.86</v>
@@ -1629,7 +1740,7 @@
         <v>1.28</v>
       </c>
       <c r="M23" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N23">
         <v>3</v>
@@ -1637,19 +1748,19 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F24">
         <v>1.63</v>
@@ -1664,7 +1775,7 @@
         <v>0.2</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K24">
         <v>0.8</v>
@@ -1673,7 +1784,7 @@
         <v>1.63</v>
       </c>
       <c r="M24" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N24">
         <v>3</v>
@@ -1681,19 +1792,19 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F25">
         <v>1.35</v>
@@ -1708,7 +1819,7 @@
         <v>0.1</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K25">
         <v>0.9</v>
@@ -1717,7 +1828,7 @@
         <v>1.35</v>
       </c>
       <c r="M25" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -1725,19 +1836,19 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F26">
         <v>1.25</v>
@@ -1752,7 +1863,7 @@
         <v>0.05</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K26">
         <v>0.95</v>
@@ -1761,7 +1872,7 @@
         <v>1.25</v>
       </c>
       <c r="M26" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N26">
         <v>3</v>
@@ -1769,19 +1880,19 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F27">
         <v>12</v>
@@ -1796,7 +1907,7 @@
         <v>0.76</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="K27">
         <v>0.76</v>
@@ -1805,7 +1916,7 @@
         <v>1.23</v>
       </c>
       <c r="M27" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -1813,19 +1924,19 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F28">
         <v>1.85</v>
@@ -1840,7 +1951,7 @@
         <v>0.19</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K28">
         <v>0.8100000000000001</v>
@@ -1849,7 +1960,7 @@
         <v>1.85</v>
       </c>
       <c r="M28" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -1857,19 +1968,19 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="F29">
         <v>1.37</v>
@@ -1884,7 +1995,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K29">
         <v>0.93</v>
@@ -1893,7 +2004,7 @@
         <v>1.37</v>
       </c>
       <c r="M29" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N29">
         <v>3</v>
@@ -1901,19 +2012,19 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F30">
         <v>1.57</v>
@@ -1928,7 +2039,7 @@
         <v>0.17</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K30">
         <v>0.83</v>
@@ -1937,7 +2048,7 @@
         <v>1.57</v>
       </c>
       <c r="M30" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -1945,19 +2056,19 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F31">
         <v>1.2</v>
@@ -1972,7 +2083,7 @@
         <v>0.1</v>
       </c>
       <c r="J31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>0.9</v>
@@ -1981,9 +2092,977 @@
         <v>1.2</v>
       </c>
       <c r="M31" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32">
+        <v>1.52</v>
+      </c>
+      <c r="G32">
+        <v>6.3</v>
+      </c>
+      <c r="H32">
+        <v>0.82</v>
+      </c>
+      <c r="I32">
+        <v>0.18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32">
+        <v>0.82</v>
+      </c>
+      <c r="L32">
+        <v>1.52</v>
+      </c>
+      <c r="M32" t="s">
+        <v>119</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33">
+        <v>1.32</v>
+      </c>
+      <c r="G33">
+        <v>8.9</v>
+      </c>
+      <c r="H33">
+        <v>0.85</v>
+      </c>
+      <c r="I33">
+        <v>0.15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33">
+        <v>0.85</v>
+      </c>
+      <c r="L33">
+        <v>1.32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>119</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34">
+        <v>1.25</v>
+      </c>
+      <c r="G34">
+        <v>10.5</v>
+      </c>
+      <c r="H34">
+        <v>0.89</v>
+      </c>
+      <c r="I34">
+        <v>0.11</v>
+      </c>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34">
+        <v>0.89</v>
+      </c>
+      <c r="L34">
+        <v>1.25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35">
+        <v>1.43</v>
+      </c>
+      <c r="G35">
+        <v>7.8</v>
+      </c>
+      <c r="H35">
+        <v>0.9</v>
+      </c>
+      <c r="I35">
+        <v>0.1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35">
+        <v>0.9</v>
+      </c>
+      <c r="L35">
+        <v>1.43</v>
+      </c>
+      <c r="M35" t="s">
+        <v>119</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36">
+        <v>1.72</v>
+      </c>
+      <c r="G36">
+        <v>4.5</v>
+      </c>
+      <c r="H36">
+        <v>0.89</v>
+      </c>
+      <c r="I36">
+        <v>0.11</v>
+      </c>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36">
+        <v>0.89</v>
+      </c>
+      <c r="L36">
+        <v>1.72</v>
+      </c>
+      <c r="M36" t="s">
+        <v>119</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37">
+        <v>1.52</v>
+      </c>
+      <c r="G37">
+        <v>5.9</v>
+      </c>
+      <c r="H37">
+        <v>0.89</v>
+      </c>
+      <c r="I37">
+        <v>0.11</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37">
+        <v>0.89</v>
+      </c>
+      <c r="L37">
+        <v>1.52</v>
+      </c>
+      <c r="M37" t="s">
+        <v>119</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>1.63</v>
+      </c>
+      <c r="H38">
+        <v>0.32</v>
+      </c>
+      <c r="I38">
+        <v>0.68</v>
+      </c>
+      <c r="J38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38">
+        <v>0.68</v>
+      </c>
+      <c r="L38">
+        <v>1.63</v>
+      </c>
+      <c r="M38" t="s">
+        <v>119</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39">
+        <v>1.66</v>
+      </c>
+      <c r="G39">
+        <v>4.75</v>
+      </c>
+      <c r="H39">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I39">
+        <v>0.19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L39">
+        <v>1.66</v>
+      </c>
+      <c r="M39" t="s">
+        <v>119</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40">
+        <v>7.5</v>
+      </c>
+      <c r="G40">
+        <v>1.4</v>
+      </c>
+      <c r="H40">
+        <v>0.31</v>
+      </c>
+      <c r="I40">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J40" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L40">
+        <v>1.4</v>
+      </c>
+      <c r="M40" t="s">
+        <v>119</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41">
+        <v>4.7</v>
+      </c>
+      <c r="G41">
+        <v>1.58</v>
+      </c>
+      <c r="H41">
+        <v>0.33</v>
+      </c>
+      <c r="I41">
+        <v>0.67</v>
+      </c>
+      <c r="J41" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41">
+        <v>0.67</v>
+      </c>
+      <c r="L41">
+        <v>1.58</v>
+      </c>
+      <c r="M41" t="s">
+        <v>119</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42">
+        <v>6.9</v>
+      </c>
+      <c r="G42">
+        <v>1.44</v>
+      </c>
+      <c r="H42">
+        <v>0.23</v>
+      </c>
+      <c r="I42">
+        <v>0.77</v>
+      </c>
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42">
+        <v>0.77</v>
+      </c>
+      <c r="L42">
+        <v>1.44</v>
+      </c>
+      <c r="M42" t="s">
+        <v>119</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
         <v>82</v>
       </c>
-      <c r="N31">
+      <c r="F43">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G43">
+        <v>1.35</v>
+      </c>
+      <c r="H43">
+        <v>0.21</v>
+      </c>
+      <c r="I43">
+        <v>0.79</v>
+      </c>
+      <c r="J43" t="s">
+        <v>82</v>
+      </c>
+      <c r="K43">
+        <v>0.79</v>
+      </c>
+      <c r="L43">
+        <v>1.35</v>
+      </c>
+      <c r="M43" t="s">
+        <v>119</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44">
+        <v>1.31</v>
+      </c>
+      <c r="G44">
+        <v>10.5</v>
+      </c>
+      <c r="H44">
+        <v>0.92</v>
+      </c>
+      <c r="I44">
+        <v>0.08</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44">
+        <v>0.92</v>
+      </c>
+      <c r="L44">
+        <v>1.31</v>
+      </c>
+      <c r="M44" t="s">
+        <v>119</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45">
+        <v>1.58</v>
+      </c>
+      <c r="G45">
+        <v>5.9</v>
+      </c>
+      <c r="H45">
+        <v>0.8</v>
+      </c>
+      <c r="I45">
+        <v>0.2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45">
+        <v>0.8</v>
+      </c>
+      <c r="L45">
+        <v>1.58</v>
+      </c>
+      <c r="M45" t="s">
+        <v>119</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46">
+        <v>6.1</v>
+      </c>
+      <c r="G46">
+        <v>1.52</v>
+      </c>
+      <c r="H46">
+        <v>0.24</v>
+      </c>
+      <c r="I46">
+        <v>0.76</v>
+      </c>
+      <c r="J46" t="s">
+        <v>87</v>
+      </c>
+      <c r="K46">
+        <v>0.76</v>
+      </c>
+      <c r="L46">
+        <v>1.52</v>
+      </c>
+      <c r="M46" t="s">
+        <v>119</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47">
+        <v>1.55</v>
+      </c>
+      <c r="G47">
+        <v>5.5</v>
+      </c>
+      <c r="H47">
+        <v>0.83</v>
+      </c>
+      <c r="I47">
+        <v>0.17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47">
+        <v>0.83</v>
+      </c>
+      <c r="L47">
+        <v>1.55</v>
+      </c>
+      <c r="M47" t="s">
+        <v>119</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48">
+        <v>1.36</v>
+      </c>
+      <c r="G48">
+        <v>8.5</v>
+      </c>
+      <c r="H48">
+        <v>0.88</v>
+      </c>
+      <c r="I48">
+        <v>0.12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48">
+        <v>0.88</v>
+      </c>
+      <c r="L48">
+        <v>1.36</v>
+      </c>
+      <c r="M48" t="s">
+        <v>119</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49">
+        <v>1.27</v>
+      </c>
+      <c r="G49">
+        <v>10.5</v>
+      </c>
+      <c r="H49">
+        <v>0.87</v>
+      </c>
+      <c r="I49">
+        <v>0.13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49">
+        <v>0.87</v>
+      </c>
+      <c r="L49">
+        <v>1.27</v>
+      </c>
+      <c r="M49" t="s">
+        <v>119</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50">
+        <v>1.22</v>
+      </c>
+      <c r="G50">
+        <v>13</v>
+      </c>
+      <c r="H50">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I50">
+        <v>0.06</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L50">
+        <v>1.22</v>
+      </c>
+      <c r="M50" t="s">
+        <v>119</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51">
+        <v>1.39</v>
+      </c>
+      <c r="G51">
+        <v>7.8</v>
+      </c>
+      <c r="H51">
+        <v>0.8</v>
+      </c>
+      <c r="I51">
+        <v>0.2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51">
+        <v>0.8</v>
+      </c>
+      <c r="L51">
+        <v>1.39</v>
+      </c>
+      <c r="M51" t="s">
+        <v>119</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52">
+        <v>1.38</v>
+      </c>
+      <c r="G52">
+        <v>8.5</v>
+      </c>
+      <c r="H52">
+        <v>0.87</v>
+      </c>
+      <c r="I52">
+        <v>0.13</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+      <c r="K52">
+        <v>0.87</v>
+      </c>
+      <c r="L52">
+        <v>1.38</v>
+      </c>
+      <c r="M52" t="s">
+        <v>119</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53">
+        <v>1.3</v>
+      </c>
+      <c r="G53">
+        <v>9.5</v>
+      </c>
+      <c r="H53">
+        <v>0.92</v>
+      </c>
+      <c r="I53">
+        <v>0.08</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K53">
+        <v>0.92</v>
+      </c>
+      <c r="L53">
+        <v>1.3</v>
+      </c>
+      <c r="M53" t="s">
+        <v>119</v>
+      </c>
+      <c r="N53">
         <v>3</v>
       </c>
     </row>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -2100,7 +2100,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3412,6 +3412,566 @@
         <v>3</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3969,6 +3969,734 @@
         </is>
       </c>
       <c r="N63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUNDESLIGA </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Koln</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G68" t="n">
+        <v>15</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Macarthur FC</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>6</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G72" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G73" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G75" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>3</v>
       </c>
     </row>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4697,6 +4697,790 @@
         </is>
       </c>
       <c r="N76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G77" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUNDESLIGA </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Heracles Almelo</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>10</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G84" t="n">
+        <v>11</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Standard Liege</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Mechelen</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Standard Liege</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G89" t="n">
+        <v>12</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G90" t="n">
+        <v>10</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>3</v>
       </c>
     </row>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -4702,7 +4702,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6300,6 +6300,333 @@
         <v>3</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G91" t="n">
+        <v>7</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G92" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G93" t="n">
+        <v>9</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Odds_H_X</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6302,7 +6302,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6624,6 +6624,71 @@
         </is>
       </c>
       <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
         <v>3</v>
       </c>
     </row>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6625,6 +6625,591 @@
         <v>3</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G96" t="n">
+        <v>8</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G97" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUNDESLIGA </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G98" t="n">
+        <v>12</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G100" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G102" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G103" t="n">
+        <v>8</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>6</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -7207,6 +7207,656 @@
         </is>
       </c>
       <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G105" t="n">
+        <v>12</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>5</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Brighton and Hove Albion</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G107" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Brighton and Hove Albion</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUNDESLIGA </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>8</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G110" t="n">
+        <v>13</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>5</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G113" t="n">
+        <v>13</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I113" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G114" t="n">
+        <v>6</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
         <v>3</v>
       </c>
     </row>

--- a/tips_original.xlsx
+++ b/tips_original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -7857,6 +7857,656 @@
         </is>
       </c>
       <c r="Q114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUNDESLIGA </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G117" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G118" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Mechelen</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G119" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G120" t="n">
+        <v>12</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I120" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUNDESLIGA </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G121" t="n">
+        <v>7</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G122" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Heracles Almelo</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H123" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G124" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
         <v>3</v>
       </c>
     </row>
